--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -18,19 +18,19 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="rL2o5KkWjwUb/kl9wvgFBEd3DbTQC88HUF6A+7lh+iw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="Rlhzym1XHg2shyQ/zleIEWKMo2ceCp2u55Rgvr8v4dA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="177">
   <si>
     <t>Equipment</t>
   </si>
   <si>
-    <t>Unit Cost</t>
+    <t>Unit.Cost</t>
   </si>
   <si>
     <t>Lifespan</t>
@@ -126,10 +126,10 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Task Rate</t>
-  </si>
-  <si>
-    <t>Part Time</t>
+    <t>Task.Rate</t>
+  </si>
+  <si>
+    <t>Part.Time</t>
   </si>
   <si>
     <t>Season</t>
@@ -225,19 +225,16 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Price Gallon</t>
-  </si>
-  <si>
-    <t>Usage Trip</t>
-  </si>
-  <si>
-    <t>Additional Trips</t>
+    <t>Price.Gallon</t>
+  </si>
+  <si>
+    <t>Usage.Trip</t>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>Unit Type</t>
+    <t>Unit.Type</t>
   </si>
   <si>
     <t>Cost</t>
@@ -255,9 +252,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Lease Type</t>
   </si>
   <si>
@@ -351,25 +345,25 @@
     <t>Y1 Product</t>
   </si>
   <si>
-    <t xml:space="preserve">Product * (1-Y0 Mortality) </t>
+    <t xml:space="preserve">Product * (1-`Y0 Mortality`) </t>
   </si>
   <si>
     <t>Y2 Product</t>
   </si>
   <si>
-    <t>Y1 Product * (1-Y1 Mortality)</t>
+    <t>`Y1 Product` * (1-`Y1 Mortality`)</t>
   </si>
   <si>
     <t>Y3 Product</t>
   </si>
   <si>
-    <t xml:space="preserve">Y2 Product * (1-Y2 Mortality)  </t>
+    <t xml:space="preserve">`Y2 Product` * (1-`Y2 Mortality`)  </t>
   </si>
   <si>
     <t>Y4 Product</t>
   </si>
   <si>
-    <t>Y3 Product * (1-Y3 Mortality)</t>
+    <t>`Y3 Product` * (1-`Y3 Mortality`)</t>
   </si>
   <si>
     <t>Seed Purchase Cost</t>
@@ -426,13 +420,13 @@
     <t>Ear Hanging Droppers</t>
   </si>
   <si>
-    <t>ceiling((Y2 Product/Scallops Per Dropper))</t>
+    <t>ceiling((`Y2 Product`/`Scallops Per Dropper`))</t>
   </si>
   <si>
     <t>Dropper Length</t>
   </si>
   <si>
-    <t>((Scallops Per Dropper*Scallop Spacing)/2 + Dropper Margins)</t>
+    <t>((`Scallops Per Dropper`*`Scallop Spacing`)/2 + `Dropper Margins`)</t>
   </si>
   <si>
     <t>Daily Work Hours</t>
@@ -547,6 +541,9 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>Additional.Trips</t>
   </si>
   <si>
     <t>Fuel.Cost</t>
@@ -2289,19 +2286,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -2309,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
@@ -2320,10 +2317,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
@@ -2331,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -2342,10 +2339,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -2353,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -2364,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -2375,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -2386,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -2408,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -2419,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2427,10 +2424,10 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2441,10 +2438,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -2452,21 +2449,21 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -2474,10 +2471,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -2485,21 +2482,21 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3915,8 +3912,7 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="12.29"/>
     <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="4" width="15.0"/>
-    <col customWidth="1" min="5" max="23" width="8.71"/>
+    <col customWidth="1" min="4" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3929,9 +3925,6 @@
       <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3943,9 +3936,6 @@
       <c r="C2" s="1">
         <v>21.0</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -3956,9 +3946,6 @@
       </c>
       <c r="C3" s="1">
         <v>5.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -4979,13 +4966,13 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -4993,7 +4980,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -5004,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>
@@ -6027,31 +6014,28 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.14"/>
     <col customWidth="1" min="2" max="2" width="13.71"/>
-    <col customWidth="1" min="3" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -6059,7 +6043,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2">
         <v>60.0</v>
@@ -6067,7 +6051,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>15.0</v>
@@ -6075,7 +6059,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
         <v>100000.0</v>
@@ -6083,7 +6067,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2">
         <v>2023.0</v>
@@ -6091,7 +6075,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1000.0</v>
@@ -6099,7 +6083,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2">
         <v>35000.0</v>
@@ -6107,7 +6091,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2">
         <v>5000.0</v>
@@ -6115,7 +6099,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -6123,7 +6107,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2">
         <v>35000.0</v>
@@ -6131,7 +6115,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>15.0</v>
@@ -6139,7 +6123,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>38</v>
@@ -6147,26 +6131,26 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -7175,15 +7159,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2">
         <v>4000.0</v>
@@ -7191,7 +7175,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2">
         <v>100.0</v>
@@ -7199,7 +7183,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2">
         <v>250.0</v>
@@ -7207,7 +7191,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2">
         <v>25.0</v>
@@ -7215,7 +7199,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2">
         <v>10.0</v>
@@ -7223,7 +7207,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2">
         <v>10.0</v>
@@ -7231,7 +7215,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2">
         <v>0.125</v>
@@ -7239,7 +7223,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2">
         <v>0.125</v>
@@ -7247,7 +7231,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2">
         <v>0.125</v>
@@ -7255,7 +7239,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2">
         <v>0.125</v>
@@ -7263,39 +7247,39 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -7303,7 +7287,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2">
         <v>4.0</v>
@@ -7311,7 +7295,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2">
         <v>100.0</v>
@@ -7319,7 +7303,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2">
         <v>40.0</v>
@@ -7327,7 +7311,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2">
         <v>1200.0</v>
@@ -7335,7 +7319,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
@@ -7343,7 +7327,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2">
         <v>4.0</v>
@@ -7351,7 +7335,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2">
         <v>10.0</v>
@@ -7359,7 +7343,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="2">
         <v>10.0</v>
@@ -7367,7 +7351,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2">
         <v>25.0</v>
@@ -7375,7 +7359,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2">
         <v>3.0</v>
@@ -7383,7 +7367,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2">
         <v>40.0</v>
@@ -7391,7 +7375,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="2">
         <v>100.0</v>
@@ -7399,7 +7383,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -7407,7 +7391,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2">
         <v>140.0</v>
@@ -7415,7 +7399,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2">
         <v>0.5</v>
@@ -7423,7 +7407,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2">
         <v>10.0</v>
@@ -7431,23 +7415,23 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2">
         <v>8.0</v>
@@ -7478,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2">
@@ -7492,13 +7476,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -7506,13 +7490,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -7520,13 +7504,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -7534,13 +7518,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
@@ -7548,13 +7532,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -7562,13 +7546,13 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
@@ -7576,13 +7560,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -7590,13 +7574,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
@@ -7604,10 +7588,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
@@ -7618,13 +7602,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -7632,13 +7616,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -7646,13 +7630,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -7660,13 +7644,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -7674,13 +7658,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -7711,13 +7695,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -7725,13 +7709,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -7739,13 +7723,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -7753,13 +7737,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -7790,13 +7774,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
@@ -7804,13 +7788,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -7818,13 +7802,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -7832,13 +7816,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
@@ -7846,7 +7830,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -7860,7 +7844,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -7874,7 +7858,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>18</v>
@@ -7911,13 +7895,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28">
@@ -7925,13 +7909,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -7939,13 +7923,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -7953,13 +7937,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -7990,13 +7974,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32">
@@ -8004,13 +7988,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -8018,13 +8002,13 @@
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34">
@@ -8032,13 +8016,13 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -8046,13 +8030,13 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36">
@@ -8060,10 +8044,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2">
         <v>1.0</v>
@@ -8074,10 +8058,10 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" s="2">
         <v>1.0</v>
@@ -8088,10 +8072,10 @@
         <v>24</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2">
         <v>1.0</v>
@@ -8102,10 +8086,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -8116,10 +8100,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2">
         <v>1.0</v>
@@ -8130,10 +8114,10 @@
         <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="2">
         <v>0.0</v>
@@ -8144,10 +8128,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2">
         <v>1.0</v>
@@ -8158,10 +8142,10 @@
         <v>29</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="7">
         <v>1.0</v>
@@ -8195,13 +8179,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45">
@@ -8209,13 +8193,13 @@
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46">
@@ -8223,13 +8207,13 @@
         <v>16</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47">
@@ -8237,13 +8221,13 @@
         <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -8251,13 +8235,13 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -8285,25 +8269,25 @@
         <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -8329,19 +8313,19 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -8349,13 +8333,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -8363,13 +8347,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -8377,13 +8361,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -8391,13 +8375,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8427,13 +8411,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -8441,13 +8425,13 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -8455,13 +8439,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
@@ -8469,13 +8453,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -8483,13 +8467,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -8519,13 +8503,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
@@ -8533,13 +8517,13 @@
         <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -8547,13 +8531,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -8561,13 +8545,13 @@
         <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -8575,13 +8559,13 @@
         <v>57</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -8611,13 +8595,13 @@
         <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -8625,13 +8609,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -8639,13 +8623,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -8675,13 +8659,13 @@
         <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -8689,13 +8673,13 @@
         <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
@@ -8703,13 +8687,13 @@
         <v>55</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -8717,13 +8701,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
@@ -8731,13 +8715,13 @@
         <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -8745,13 +8729,13 @@
         <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -8759,13 +8743,13 @@
         <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -8773,13 +8757,13 @@
         <v>57</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -8809,13 +8793,13 @@
         <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
@@ -8823,13 +8807,13 @@
         <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -8837,13 +8821,13 @@
         <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -8851,13 +8835,13 @@
         <v>58</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
@@ -8865,13 +8849,13 @@
         <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -8879,13 +8863,13 @@
         <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
@@ -8893,13 +8877,13 @@
         <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35">
@@ -8907,13 +8891,13 @@
         <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8931,7 +8915,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
+    <col customWidth="1" min="3" max="4" width="21.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8939,13 +8923,16 @@
         <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
@@ -8953,154 +8940,168 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -13,19 +13,20 @@
     <sheet state="visible" name="Labor_Output" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Fuel_Output" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Maintenance_Output" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Year" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="Rlhzym1XHg2shyQ/zleIEWKMo2ceCp2u55Rgvr8v4dA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="y6dgCZTUNuqB45MgO6UD3xvJLbozGyiK/oXQlsge21M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="184">
   <si>
     <t>Equipment</t>
   </si>
@@ -36,6 +37,9 @@
     <t>Lifespan</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>Vessel</t>
   </si>
   <si>
@@ -309,7 +313,13 @@
     <t>Spat Procurement</t>
   </si>
   <si>
-    <t>Wild</t>
+    <t>Wild Spat - Collected</t>
+  </si>
+  <si>
+    <t>Intermediate Culture</t>
+  </si>
+  <si>
+    <t>Intermediate - Lantern Net</t>
   </si>
   <si>
     <t>Wild Spat Collector</t>
@@ -438,34 +448,28 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Y0</t>
   </si>
   <si>
-    <t>Wild Spat - Collected</t>
-  </si>
-  <si>
-    <t>Product/Spat Collector</t>
-  </si>
-  <si>
-    <t>(Product/Spat Collector)/Collectors Line</t>
-  </si>
-  <si>
-    <t>((Product/Spat Collector)/Collectors Line) * Spat Site Depth</t>
-  </si>
-  <si>
-    <t>Product/(Seed Net Density*Lantern Net Tiers)</t>
-  </si>
-  <si>
-    <t>(Product/(Seed Net Density*Lantern Net Tiers))/Lantern Net Hardball Spacing</t>
-  </si>
-  <si>
-    <t>(Product/(Seed Net Density*Lantern Net Tiers) * Gangion Length) + ((Product/(Seed Net Density*Lantern Net Tiers))/Lantern Net Hardball Spacing *Gangion Length)</t>
-  </si>
-  <si>
-    <t>(Product/(Seed Net Density*Lantern Net Tiers))/Lantern Net Anchor Spacing</t>
+    <t>Product/`Spat Collector`</t>
+  </si>
+  <si>
+    <t>(Product/`Spat Collector`)/`Collectors Line`</t>
+  </si>
+  <si>
+    <t>((Product/`Spat Collector`)/`Collectors Line`) * `Spat Site Depth`</t>
+  </si>
+  <si>
+    <t>Product/(`Seed Net Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
   </si>
   <si>
     <t>Wild Spat - Purchased</t>
@@ -474,43 +478,61 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>Y1 Product/(Y1 Stocking Density*Lantern Net Tiers)</t>
-  </si>
-  <si>
-    <t>(Y1 Product/(Y1 Stocking Density*Lantern Net Tiers) * Gangion Length) + ((Y1 Product/(Y1 Stocking Density*Lantern Net Tiers))/Lantern Net Hardball Spacing *Gangion Length)</t>
-  </si>
-  <si>
-    <t>(Y1 Product/(Y1 Stocking Density*Lantern Net Tiers))/Lantern Net Hardball Spacing</t>
-  </si>
-  <si>
-    <t>(Y1 Product/(Y1 Stocking Density*Lantern Net Tiers))/Lantern Net Anchor Spacing</t>
+    <t>`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
   </si>
   <si>
     <t>Y2</t>
   </si>
   <si>
-    <t>Y2 Product/(Y12Stocking Density*Lantern Net Tiers)</t>
-  </si>
-  <si>
-    <t>(Y2 Product/(Y2 Stocking Density*Lantern Net Tiers) * Gangion Length) + ((Y2 Product/(Y2 Stocking Density*Lantern Net Tiers))/Lantern Net Hardball Spacing *Gangion Length)</t>
-  </si>
-  <si>
-    <t>(Y2 Product/(Y2 Stocking Density*Lantern Net Tiers))/Lantern Net Hardball Spacing</t>
-  </si>
-  <si>
-    <t>(Y2 Product/(Y2 Stocking Density*Lantern Net Tiers))/Lantern Net Anchor Spacing</t>
-  </si>
-  <si>
-    <t>Ear Hanging Droppers * Dropper Length</t>
-  </si>
-  <si>
-    <t>Y2 Product * 2</t>
-  </si>
-  <si>
-    <t>Ear Hanging Droppers/Ear Hanging Hardball Spacing</t>
-  </si>
-  <si>
-    <t>Ear Hanging Droppers/Ear Hanging Anchor Spacing</t>
+    <t>`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers` * `Dropper Length`</t>
+  </si>
+  <si>
+    <t>`Y2 Product` * 2</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`/`Ear Hanging Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`/`Ear Hanging Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`* `Dropper Length`</t>
   </si>
   <si>
     <t>Completed</t>
@@ -621,13 +643,13 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -655,6 +677,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -908,10 +934,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>100000.0</v>
@@ -919,7 +948,9 @@
       <c r="C2" s="3">
         <v>15.0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -939,7 +970,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>25000.0</v>
@@ -947,32 +978,38 @@
       <c r="C3" s="1">
         <v>10.0</v>
       </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
         <v>800.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>5.0</v>
       </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.61</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>0.07</v>
@@ -983,7 +1020,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>0.91</v>
@@ -993,10 +1030,10 @@
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
         <v>1000.0</v>
       </c>
       <c r="C8" s="3">
@@ -1022,7 +1059,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -1033,7 +1070,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -1044,12 +1081,12 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>120.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>15.0</v>
       </c>
       <c r="D11" s="3"/>
@@ -1072,7 +1109,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>100.0</v>
@@ -1083,7 +1120,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>70.0</v>
@@ -1094,7 +1131,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>20.0</v>
@@ -1105,7 +1142,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>50.0</v>
@@ -1133,7 +1170,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -1144,7 +1181,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>21.67</v>
@@ -1155,7 +1192,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>20.0</v>
@@ -1166,7 +1203,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
@@ -1177,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -1188,7 +1225,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -1196,10 +1233,13 @@
       <c r="C21" s="2">
         <v>10.0</v>
       </c>
+      <c r="D21" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -1207,10 +1247,13 @@
       <c r="C22" s="2">
         <v>10.0</v>
       </c>
+      <c r="D22" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -1218,10 +1261,13 @@
       <c r="C23" s="2">
         <v>10.0</v>
       </c>
+      <c r="D23" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -1229,10 +1275,13 @@
       <c r="C24" s="2">
         <v>30.0</v>
       </c>
+      <c r="D24" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -1240,10 +1289,13 @@
       <c r="C25" s="2">
         <v>10.0</v>
       </c>
+      <c r="D25" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -1251,10 +1303,13 @@
       <c r="C26" s="2">
         <v>10.0</v>
       </c>
+      <c r="D26" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -1262,10 +1317,13 @@
       <c r="C27" s="2">
         <v>10.0</v>
       </c>
+      <c r="D27" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -1273,10 +1331,13 @@
       <c r="C28" s="2">
         <v>10.0</v>
       </c>
+      <c r="D28" s="2">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
@@ -2286,220 +2347,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2521,27 +2596,27 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -2550,15 +2625,15 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -2567,15 +2642,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -2584,15 +2659,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -2601,15 +2676,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -2618,15 +2693,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -2635,15 +2710,15 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -2652,15 +2727,15 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -2669,15 +2744,15 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -2686,15 +2761,15 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -2703,15 +2778,15 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -2720,15 +2795,15 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -2737,15 +2812,15 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>8000.0</v>
@@ -2754,15 +2829,15 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>12000.0</v>
@@ -2771,15 +2846,15 @@
         <v>2.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -2788,15 +2863,15 @@
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -2805,15 +2880,15 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -2822,15 +2897,15 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>2000.0</v>
@@ -2839,15 +2914,15 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2">
         <v>5.0</v>
@@ -2856,15 +2931,15 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="2">
         <v>5.0</v>
@@ -2873,15 +2948,15 @@
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2">
         <v>5.0</v>
@@ -2890,15 +2965,15 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>5.0</v>
@@ -2907,7 +2982,7 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -3917,18 +3992,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>6.0</v>
@@ -3939,7 +4014,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -4966,21 +5041,21 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -4988,10 +5063,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>
@@ -6013,29 +6088,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="26.14"/>
-    <col customWidth="1" min="2" max="2" width="13.71"/>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
     <col customWidth="1" min="3" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
@@ -6043,7 +6118,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2">
         <v>60.0</v>
@@ -6051,7 +6126,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>15.0</v>
@@ -6059,7 +6134,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2">
         <v>100000.0</v>
@@ -6067,7 +6142,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2">
         <v>2023.0</v>
@@ -6075,7 +6150,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>1000.0</v>
@@ -6083,7 +6158,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2">
         <v>35000.0</v>
@@ -6091,7 +6166,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2">
         <v>5000.0</v>
@@ -6099,7 +6174,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
@@ -6107,7 +6182,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2">
         <v>35000.0</v>
@@ -6115,7 +6190,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2">
         <v>15.0</v>
@@ -6123,37 +6198,44 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -7159,15 +7241,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2">
         <v>4000.0</v>
@@ -7175,7 +7257,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2">
         <v>100.0</v>
@@ -7183,7 +7265,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
         <v>250.0</v>
@@ -7191,7 +7273,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2">
         <v>25.0</v>
@@ -7199,7 +7281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>10.0</v>
@@ -7207,7 +7289,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2">
         <v>10.0</v>
@@ -7215,7 +7297,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2">
         <v>0.125</v>
@@ -7223,7 +7305,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2">
         <v>0.125</v>
@@ -7231,7 +7313,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2">
         <v>0.125</v>
@@ -7239,7 +7321,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2">
         <v>0.125</v>
@@ -7247,39 +7329,39 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -7287,7 +7369,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2">
         <v>4.0</v>
@@ -7295,7 +7377,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2">
         <v>100.0</v>
@@ -7303,7 +7385,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2">
         <v>40.0</v>
@@ -7311,7 +7393,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2">
         <v>1200.0</v>
@@ -7319,7 +7401,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
@@ -7327,7 +7409,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2">
         <v>4.0</v>
@@ -7335,7 +7417,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2">
         <v>10.0</v>
@@ -7343,7 +7425,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2">
         <v>10.0</v>
@@ -7351,7 +7433,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2">
         <v>25.0</v>
@@ -7359,7 +7441,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2">
         <v>3.0</v>
@@ -7367,7 +7449,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2">
         <v>40.0</v>
@@ -7375,7 +7457,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2">
         <v>100.0</v>
@@ -7383,7 +7465,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
@@ -7391,7 +7473,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2">
         <v>140.0</v>
@@ -7399,7 +7481,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2">
         <v>0.5</v>
@@ -7407,7 +7489,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2">
         <v>10.0</v>
@@ -7415,23 +7497,23 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2">
         <v>8.0</v>
@@ -7462,136 +7544,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
@@ -7599,72 +7681,72 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -7692,58 +7774,58 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -7771,69 +7853,69 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
@@ -7841,13 +7923,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2">
         <v>1.0</v>
@@ -7855,13 +7937,13 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7">
         <v>1.0</v>
@@ -7871,7 +7953,6 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -7892,65 +7973,64 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -7971,83 +8051,83 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2">
         <v>1.0</v>
@@ -8055,13 +8135,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2">
         <v>1.0</v>
@@ -8069,13 +8149,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2">
         <v>1.0</v>
@@ -8083,13 +8163,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -8097,13 +8177,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2">
         <v>1.0</v>
@@ -8111,13 +8191,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="2">
         <v>0.0</v>
@@ -8125,13 +8205,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="2">
         <v>1.0</v>
@@ -8139,13 +8219,13 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="7">
         <v>1.0</v>
@@ -8176,72 +8256,72 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -8266,28 +8346,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -8310,78 +8390,78 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -8408,72 +8488,72 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -8500,72 +8580,72 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -8592,44 +8672,44 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -8656,114 +8736,114 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -8790,114 +8870,114 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -8920,186 +9000,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
     </row>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -451,13 +451,13 @@
     <t>Y0</t>
   </si>
   <si>
-    <t>Product/`Spat Collector`</t>
-  </si>
-  <si>
-    <t>(Product/`Spat Collector`)/`Collectors Line`</t>
-  </si>
-  <si>
-    <t>((Product/`Spat Collector`)/`Collectors Line`) * `Spat Site Depth`</t>
+    <t>Product/`Wild Spat Collector`</t>
+  </si>
+  <si>
+    <t>(Product/`Wild Spat Collector`)/`Collectors Line`</t>
+  </si>
+  <si>
+    <t>((Product/`Wild Spat Collector`)/`Collectors Line`) * `Spat Site Depth`</t>
   </si>
   <si>
     <t>Product/(`Seed Net Density`*`Lantern Net Tiers`)</t>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Equipment" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Labor" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Fuel" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Maintenance" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Primary" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Secondary" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Equipment_Output" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Labor_Output" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Fuel_Output" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Primary" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Secondary" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Equipment" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Equipment_Output" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Labor" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Labor_Output" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Fuel" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Fuel_Output" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Maintenance" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Maintenance_Output" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="Year" sheetId="11" r:id="rId14"/>
   </sheets>
@@ -19,14 +19,209 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="y6dgCZTUNuqB45MgO6UD3xvJLbozGyiK/oXQlsge21M="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="pov5bRgw1CajhQFlvjgNutDaMUG0G6v//uh11SScOhc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="204">
+  <si>
+    <t>VariableName</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Lease Type</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Longline Quantity</t>
+  </si>
+  <si>
+    <t>Longline Depth</t>
+  </si>
+  <si>
+    <t>Longline Suspended Depth</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Starting Year</t>
+  </si>
+  <si>
+    <t>Consumables</t>
+  </si>
+  <si>
+    <t>Owner Salary</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Full Time Employee</t>
+  </si>
+  <si>
+    <t>Employee Salary</t>
+  </si>
+  <si>
+    <t>Part Time Wage</t>
+  </si>
+  <si>
+    <t>Harvest Season</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Harvest Year</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Grow Out Method</t>
+  </si>
+  <si>
+    <t>Ear Hanging</t>
+  </si>
+  <si>
+    <t>Spat Procurement</t>
+  </si>
+  <si>
+    <t>Wild Spat - Collected</t>
+  </si>
+  <si>
+    <t>Intermediate Culture</t>
+  </si>
+  <si>
+    <t>Intermediate - Lantern Net</t>
+  </si>
+  <si>
+    <t>Wild Spat Collector</t>
+  </si>
+  <si>
+    <t>Spat Site Depth</t>
+  </si>
+  <si>
+    <t>Seed Net Density</t>
+  </si>
+  <si>
+    <t>Y1 Stocking Density</t>
+  </si>
+  <si>
+    <t>Y2 Stocking Density</t>
+  </si>
+  <si>
+    <t>Y3 Stocking Density</t>
+  </si>
+  <si>
+    <t>Y0 Mortality</t>
+  </si>
+  <si>
+    <t>Y1 Mortality</t>
+  </si>
+  <si>
+    <t>Y2 Mortality</t>
+  </si>
+  <si>
+    <t>Y3 Mortality</t>
+  </si>
+  <si>
+    <t>Y1 Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product * (1-`Y0 Mortality`) </t>
+  </si>
+  <si>
+    <t>Y2 Product</t>
+  </si>
+  <si>
+    <t>`Y1 Product` * (1-`Y1 Mortality`)</t>
+  </si>
+  <si>
+    <t>Y3 Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Y2 Product` * (1-`Y2 Mortality`)  </t>
+  </si>
+  <si>
+    <t>Y4 Product</t>
+  </si>
+  <si>
+    <t>`Y3 Product` * (1-`Y3 Mortality`)</t>
+  </si>
+  <si>
+    <t>Seed Purchase Cost</t>
+  </si>
+  <si>
+    <t>Mooring Length</t>
+  </si>
+  <si>
+    <t>Surface Float Spacing</t>
+  </si>
+  <si>
+    <t>Longline Spacing</t>
+  </si>
+  <si>
+    <t>Shellfish License</t>
+  </si>
+  <si>
+    <t>Collectors Line</t>
+  </si>
+  <si>
+    <t>Gangion Length</t>
+  </si>
+  <si>
+    <t>Lantern Net Tiers</t>
+  </si>
+  <si>
+    <t>Lantern Net Hardball Spacing</t>
+  </si>
+  <si>
+    <t>Lantern Net Anchor Spacing</t>
+  </si>
+  <si>
+    <t>Lantern Net Spacing</t>
+  </si>
+  <si>
+    <t>Ear Hanging Hardball Spacing</t>
+  </si>
+  <si>
+    <t>Ear Hanging Anchor Spacing</t>
+  </si>
+  <si>
+    <t>Dropper Line Spacing</t>
+  </si>
+  <si>
+    <t>Scallops Per Dropper</t>
+  </si>
+  <si>
+    <t>Scallop Spacing</t>
+  </si>
+  <si>
+    <t>Dropper Margins</t>
+  </si>
+  <si>
+    <t>Ear Hanging Droppers</t>
+  </si>
+  <si>
+    <t>ceiling((`Y2 Product`/`Scallops Per Dropper`))</t>
+  </si>
+  <si>
+    <t>Dropper Length</t>
+  </si>
+  <si>
+    <t>((`Scallops Per Dropper`*`Scallop Spacing`)/2 + `Dropper Margins`)</t>
+  </si>
+  <si>
+    <t>Daily Work Hours</t>
+  </si>
   <si>
     <t>Equipment</t>
   </si>
@@ -124,6 +319,99 @@
     <t>Seed</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Product/`Wild Spat Collector`</t>
+  </si>
+  <si>
+    <t>(Product/`Wild Spat Collector`)/`Collectors Line`</t>
+  </si>
+  <si>
+    <t>((Product/`Wild Spat Collector`)/`Collectors Line`) * `Spat Site Depth`</t>
+  </si>
+  <si>
+    <t>Product/(`Seed Net Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>Wild Spat - Purchased</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`)</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers` * `Dropper Length`</t>
+  </si>
+  <si>
+    <t>`Y2 Product`/2</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`/`Ear Hanging Hardball Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`/`Ear Hanging Anchor Spacing`</t>
+  </si>
+  <si>
+    <t>`Ear Hanging Droppers`* `Dropper Length`</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
@@ -145,9 +433,6 @@
     <t>Devices/Day</t>
   </si>
   <si>
-    <t>Fall</t>
-  </si>
-  <si>
     <t>Collect Settlement Device</t>
   </si>
   <si>
@@ -226,6 +511,99 @@
     <t>Winter</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Trips</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours`*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours`*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours`*Product/ Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Product/ Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y1')]/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y1')]/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y0')]/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y2')]/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y2')]/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y3')]/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Lantern Net' &amp; Equipment.Subset$Year == 'Y3')]/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * `Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Drill (Dremel)')])</t>
+  </si>
+  <si>
+    <t>ceiling(`Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Drill (Dremel)')]))</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * `Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Drill (Automated)')])</t>
+  </si>
+  <si>
+    <t>ceiling(`Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Drill (Automated)')]))</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * `Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Automated Drill and Pin')])</t>
+  </si>
+  <si>
+    <t>ceiling(`Y2 Product`/(Labor.Subset$Task.Rate[i]*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Automated Drill and Pin')]))</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * `Ear Hanging Droppers`/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(`Ear Hanging Droppers`/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>`Daily Work Hours` * Market.Product/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Market.Product/Labor.Subset$Task.Rate[i])</t>
+  </si>
+  <si>
+    <t>12*Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
@@ -235,6 +613,12 @@
     <t>Usage.Trip</t>
   </si>
   <si>
+    <t>Additional.Trips</t>
+  </si>
+  <si>
+    <t>Fuel.Cost</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
@@ -244,331 +628,7 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Trips</t>
-  </si>
-  <si>
     <t>Miles</t>
-  </si>
-  <si>
-    <t>VariableName</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Lease Type</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Longline Quantity</t>
-  </si>
-  <si>
-    <t>Longline Depth</t>
-  </si>
-  <si>
-    <t>Longline Suspended Depth</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Starting Year</t>
-  </si>
-  <si>
-    <t>Consumables</t>
-  </si>
-  <si>
-    <t>Owner Salary</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Full Time Employee</t>
-  </si>
-  <si>
-    <t>Employee Salary</t>
-  </si>
-  <si>
-    <t>Part Time Wage</t>
-  </si>
-  <si>
-    <t>Harvest Season</t>
-  </si>
-  <si>
-    <t>Harvest Year</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>Grow Out Method</t>
-  </si>
-  <si>
-    <t>Ear Hanging</t>
-  </si>
-  <si>
-    <t>Spat Procurement</t>
-  </si>
-  <si>
-    <t>Wild Spat - Collected</t>
-  </si>
-  <si>
-    <t>Intermediate Culture</t>
-  </si>
-  <si>
-    <t>Intermediate - Lantern Net</t>
-  </si>
-  <si>
-    <t>Wild Spat Collector</t>
-  </si>
-  <si>
-    <t>Spat Site Depth</t>
-  </si>
-  <si>
-    <t>Seed Net Density</t>
-  </si>
-  <si>
-    <t>Y1 Stocking Density</t>
-  </si>
-  <si>
-    <t>Y2 Stocking Density</t>
-  </si>
-  <si>
-    <t>Y3 Stocking Density</t>
-  </si>
-  <si>
-    <t>Y0 Mortality</t>
-  </si>
-  <si>
-    <t>Y1 Mortality</t>
-  </si>
-  <si>
-    <t>Y2 Mortality</t>
-  </si>
-  <si>
-    <t>Y3 Mortality</t>
-  </si>
-  <si>
-    <t>Y1 Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product * (1-`Y0 Mortality`) </t>
-  </si>
-  <si>
-    <t>Y2 Product</t>
-  </si>
-  <si>
-    <t>`Y1 Product` * (1-`Y1 Mortality`)</t>
-  </si>
-  <si>
-    <t>Y3 Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`Y2 Product` * (1-`Y2 Mortality`)  </t>
-  </si>
-  <si>
-    <t>Y4 Product</t>
-  </si>
-  <si>
-    <t>`Y3 Product` * (1-`Y3 Mortality`)</t>
-  </si>
-  <si>
-    <t>Seed Purchase Cost</t>
-  </si>
-  <si>
-    <t>Mooring Length</t>
-  </si>
-  <si>
-    <t>Surface Float Spacing</t>
-  </si>
-  <si>
-    <t>Longline Spacing</t>
-  </si>
-  <si>
-    <t>Shellfish License</t>
-  </si>
-  <si>
-    <t>Collectors Line</t>
-  </si>
-  <si>
-    <t>Gangion Length</t>
-  </si>
-  <si>
-    <t>Lantern Net Tiers</t>
-  </si>
-  <si>
-    <t>Lantern Net Hardball Spacing</t>
-  </si>
-  <si>
-    <t>Lantern Net Anchor Spacing</t>
-  </si>
-  <si>
-    <t>Lantern Net Spacing</t>
-  </si>
-  <si>
-    <t>Ear Hanging Hardball Spacing</t>
-  </si>
-  <si>
-    <t>Ear Hanging Anchor Spacing</t>
-  </si>
-  <si>
-    <t>Dropper Line Spacing</t>
-  </si>
-  <si>
-    <t>Scallops Per Dropper</t>
-  </si>
-  <si>
-    <t>Scallop Spacing</t>
-  </si>
-  <si>
-    <t>Dropper Margins</t>
-  </si>
-  <si>
-    <t>Ear Hanging Droppers</t>
-  </si>
-  <si>
-    <t>ceiling((`Y2 Product`/`Scallops Per Dropper`))</t>
-  </si>
-  <si>
-    <t>Dropper Length</t>
-  </si>
-  <si>
-    <t>((`Scallops Per Dropper`*`Scallop Spacing`)/2 + `Dropper Margins`)</t>
-  </si>
-  <si>
-    <t>Daily Work Hours</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Y0</t>
-  </si>
-  <si>
-    <t>Product/`Wild Spat Collector`</t>
-  </si>
-  <si>
-    <t>(Product/`Wild Spat Collector`)/`Collectors Line`</t>
-  </si>
-  <si>
-    <t>((Product/`Wild Spat Collector`)/`Collectors Line`) * `Spat Site Depth`</t>
-  </si>
-  <si>
-    <t>Product/(`Seed Net Density`*`Lantern Net Tiers`)</t>
-  </si>
-  <si>
-    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
-  </si>
-  <si>
-    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
-  </si>
-  <si>
-    <t>(Product/(`Seed Net Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
-  </si>
-  <si>
-    <t>Wild Spat - Purchased</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`)</t>
-  </si>
-  <si>
-    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
-  </si>
-  <si>
-    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
-  </si>
-  <si>
-    <t>(`Y1 Product`/(`Y1 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`)</t>
-  </si>
-  <si>
-    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
-  </si>
-  <si>
-    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
-  </si>
-  <si>
-    <t>(`Y2 Product`/(`Y2 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
-  </si>
-  <si>
-    <t>`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`)</t>
-  </si>
-  <si>
-    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`) * `Gangion Length`) + ((`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing` *`Gangion Length`)</t>
-  </si>
-  <si>
-    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Hardball Spacing`</t>
-  </si>
-  <si>
-    <t>(`Y3 Product`/(`Y3 Stocking Density`*`Lantern Net Tiers`))/`Lantern Net Anchor Spacing`</t>
-  </si>
-  <si>
-    <t>`Ear Hanging Droppers` * `Dropper Length`</t>
-  </si>
-  <si>
-    <t>`Y2 Product` * 2</t>
-  </si>
-  <si>
-    <t>`Ear Hanging Droppers`/`Ear Hanging Hardball Spacing`</t>
-  </si>
-  <si>
-    <t>`Ear Hanging Droppers`</t>
-  </si>
-  <si>
-    <t>`Ear Hanging Droppers`/`Ear Hanging Anchor Spacing`</t>
-  </si>
-  <si>
-    <t>`Ear Hanging Droppers`* `Dropper Length`</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Hours.Paid</t>
-  </si>
-  <si>
-    <t>Labor.Costs</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Daily Work Hours*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Task.Subset$Task.Rate[i]</t>
-  </si>
-  <si>
-    <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Task.Subset$Task.Rate[i])</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Additional.Trips</t>
-  </si>
-  <si>
-    <t>Fuel.Cost</t>
   </si>
   <si>
     <t>Units</t>
@@ -920,27 +980,1723 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="26.14"/>
+    <col customWidth="1" min="2" max="2" width="25.0"/>
+    <col customWidth="1" min="3" max="25" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35000.0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>35000.0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.0"/>
+    <col customWidth="1" min="2" max="2" width="7.0"/>
+    <col customWidth="1" min="3" max="3" width="20.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="28.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="22.86"/>
     <col customWidth="1" min="2" max="20" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3">
         <v>100000.0</v>
@@ -970,7 +2726,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>25000.0</v>
@@ -984,7 +2740,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6">
         <v>800.0</v>
@@ -998,7 +2754,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5">
         <v>0.61</v>
@@ -1009,7 +2765,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2">
         <v>0.07</v>
@@ -1020,7 +2776,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>0.91</v>
@@ -1031,7 +2787,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
         <v>1000.0</v>
@@ -1059,7 +2815,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -1070,7 +2826,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -1081,7 +2837,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3">
         <v>120.0</v>
@@ -1109,7 +2865,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>100.0</v>
@@ -1120,7 +2876,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1">
         <v>70.0</v>
@@ -1131,7 +2887,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2">
         <v>20.0</v>
@@ -1142,7 +2898,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <v>50.0</v>
@@ -1170,7 +2926,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -1181,7 +2937,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>21.67</v>
@@ -1192,7 +2948,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2">
         <v>20.0</v>
@@ -1203,7 +2959,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
@@ -1214,7 +2970,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -1225,7 +2981,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -1239,7 +2995,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -1253,7 +3009,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -1267,7 +3023,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -1281,7 +3037,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -1295,7 +3051,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -1309,7 +3065,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -1323,7 +3079,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -1337,7 +3093,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
@@ -2330,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2340,224 +4096,794 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="7.0"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
+    <col customWidth="1" min="1" max="1" width="22.71"/>
+    <col customWidth="1" min="3" max="3" width="21.43"/>
+    <col customWidth="1" min="4" max="4" width="22.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
+      <c r="A9" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>91</v>
+      <c r="A11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>91</v>
+      <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>91</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
+      <c r="A14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="A15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
+      <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2565,21 +4891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -2591,32 +4903,34 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="32.57"/>
     <col customWidth="1" min="2" max="2" width="11.43"/>
-    <col customWidth="1" min="3" max="20" width="8.71"/>
+    <col customWidth="1" min="3" max="5" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="13.43"/>
+    <col customWidth="1" min="7" max="20" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -2625,15 +4939,15 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -2642,15 +4956,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -2659,15 +4973,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -2676,15 +4990,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -2693,15 +5007,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -2710,15 +5024,15 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -2727,15 +5041,15 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -2744,15 +5058,15 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -2761,15 +5075,15 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -2778,15 +5092,15 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -2795,15 +5109,15 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -2812,15 +5126,15 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2">
         <v>8000.0</v>
@@ -2829,15 +5143,15 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2">
         <v>12000.0</v>
@@ -2846,15 +5160,15 @@
         <v>2.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -2863,15 +5177,15 @@
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -2880,15 +5194,15 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -2897,92 +5211,92 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2">
-        <v>2000.0</v>
+        <v>1250.0</v>
       </c>
       <c r="D19" s="2">
         <v>1.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D20" s="2">
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21" s="2">
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" s="2">
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23" s="2">
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -3974,7 +6288,835 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="32.29"/>
+    <col customWidth="1" min="3" max="3" width="20.29"/>
+    <col customWidth="1" min="5" max="5" width="30.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -3992,18 +7134,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
         <v>6.0</v>
@@ -4014,7 +7156,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -5026,7 +8168,210 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="4" width="21.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -5041,21 +8386,21 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -5063,10 +8408,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>
@@ -6075,3115 +9420,4 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="26.14"/>
-    <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="3" max="25" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="2">
-        <v>100000.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2023.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="2">
-        <v>35000.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="2">
-        <v>35000.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="2">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="28.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4000.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2">
-        <v>250.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="2">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="2">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="2">
-        <v>140.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="22.71"/>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="32.29"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="5" max="5" width="30.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="3" max="4" width="21.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -13,20 +13,19 @@
     <sheet state="visible" name="Fuel_Output" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Maintenance" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Maintenance_Output" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Year" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="pov5bRgw1CajhQFlvjgNutDaMUG0G6v//uh11SScOhc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="U5Yad8Sx9nGRkSjHYrXLQZsSTs3dmSAlvHtxBO5SmK8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="203">
   <si>
     <t>VariableName</t>
   </si>
@@ -85,24 +84,24 @@
     <t>Y3</t>
   </si>
   <si>
+    <t>Spat Procurement</t>
+  </si>
+  <si>
+    <t>Wild Spat - Collected</t>
+  </si>
+  <si>
+    <t>Intermediate Culture</t>
+  </si>
+  <si>
+    <t>Intermediate - Lantern Net</t>
+  </si>
+  <si>
     <t>Grow Out Method</t>
   </si>
   <si>
     <t>Ear Hanging</t>
   </si>
   <si>
-    <t>Spat Procurement</t>
-  </si>
-  <si>
-    <t>Wild Spat - Collected</t>
-  </si>
-  <si>
-    <t>Intermediate Culture</t>
-  </si>
-  <si>
-    <t>Intermediate - Lantern Net</t>
-  </si>
-  <si>
     <t>Wild Spat Collector</t>
   </si>
   <si>
@@ -235,6 +234,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>Vessel</t>
   </si>
   <si>
@@ -295,6 +297,9 @@
     <t>Scallop Washer</t>
   </si>
   <si>
+    <t>Specialized Equipment</t>
+  </si>
+  <si>
     <t>Scallop Grader</t>
   </si>
   <si>
@@ -616,12 +621,6 @@
     <t>Additional.Trips</t>
   </si>
   <si>
-    <t>Fuel.Cost</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Unit.Type</t>
   </si>
   <si>
@@ -635,9 +634,6 @@
   </si>
   <si>
     <t>Maintenance.Cost</t>
-  </si>
-  <si>
-    <t>Specialized Equipment</t>
   </si>
 </sst>
 </file>
@@ -737,10 +733,6 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2110,7 +2102,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2136,13 +2127,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>201</v>
@@ -2153,217 +2144,203 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2677,7 +2654,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.86"/>
-    <col customWidth="1" min="2" max="20" width="8.71"/>
+    <col customWidth="1" min="2" max="4" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="21.14"/>
+    <col customWidth="1" min="6" max="20" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2693,10 +2672,13 @@
       <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3">
         <v>100000.0</v>
@@ -2707,7 +2689,9 @@
       <c r="D2" s="4">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2726,7 +2710,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1">
         <v>25000.0</v>
@@ -2737,10 +2721,13 @@
       <c r="D3" s="2">
         <v>1.0</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6">
         <v>800.0</v>
@@ -2754,7 +2741,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5">
         <v>0.61</v>
@@ -2765,7 +2752,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2">
         <v>0.07</v>
@@ -2776,7 +2763,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>0.91</v>
@@ -2787,7 +2774,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4">
         <v>1000.0</v>
@@ -2815,7 +2802,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -2826,7 +2813,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -2837,7 +2824,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="3">
         <v>120.0</v>
@@ -2865,7 +2852,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>100.0</v>
@@ -2876,7 +2863,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1">
         <v>70.0</v>
@@ -2887,7 +2874,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2">
         <v>20.0</v>
@@ -2898,7 +2885,7 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7">
         <v>50.0</v>
@@ -2926,7 +2913,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -2937,7 +2924,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>21.67</v>
@@ -2948,7 +2935,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2">
         <v>20.0</v>
@@ -2959,7 +2946,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
@@ -2970,7 +2957,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -2981,7 +2968,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -2992,10 +2979,13 @@
       <c r="D21" s="2">
         <v>1.0</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -3006,10 +2996,13 @@
       <c r="D22" s="2">
         <v>1.0</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -3020,10 +3013,13 @@
       <c r="D23" s="2">
         <v>1.0</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -3034,10 +3030,13 @@
       <c r="D24" s="2">
         <v>0.0</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -3048,10 +3047,13 @@
       <c r="D25" s="2">
         <v>1.0</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -3062,10 +3064,13 @@
       <c r="D26" s="2">
         <v>0.0</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -3079,7 +3084,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -3093,7 +3098,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
@@ -4106,10 +4111,10 @@
         <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>68</v>
@@ -4117,125 +4122,125 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
@@ -4243,13 +4248,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -4257,58 +4262,58 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4336,58 +4341,58 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -4415,69 +4420,69 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2">
         <v>1.0</v>
@@ -4485,13 +4490,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>1.0</v>
@@ -4499,13 +4504,13 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="7">
         <v>1.0</v>
@@ -4535,58 +4540,58 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -4613,83 +4618,83 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2">
         <v>1.0</v>
@@ -4697,13 +4702,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2">
         <v>1.0</v>
@@ -4711,13 +4716,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2">
         <v>1.0</v>
@@ -4725,13 +4730,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -4739,13 +4744,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
         <v>1.0</v>
@@ -4753,13 +4758,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2">
         <v>0.0</v>
@@ -4767,13 +4772,13 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2">
         <v>1.0</v>
@@ -4781,13 +4786,13 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D43" s="7">
         <v>1.0</v>
@@ -4818,72 +4823,72 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4910,27 +4915,27 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -4944,10 +4949,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -4956,15 +4961,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -4973,15 +4978,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -4990,15 +4995,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -5007,15 +5012,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -5024,15 +5029,15 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -5041,15 +5046,15 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -5058,15 +5063,15 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -5080,10 +5085,10 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -5092,15 +5097,15 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -5109,15 +5114,15 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -5131,10 +5136,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2">
         <v>8000.0</v>
@@ -5148,10 +5153,10 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2">
         <v>12000.0</v>
@@ -5165,10 +5170,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -5182,10 +5187,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -5194,15 +5199,15 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -5211,15 +5216,15 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C19" s="2">
         <v>1250.0</v>
@@ -5228,15 +5233,15 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2">
         <v>10.0</v>
@@ -5245,15 +5250,15 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -5267,10 +5272,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C22" s="2">
         <v>0.0</v>
@@ -5279,15 +5284,15 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -5296,7 +5301,7 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -6305,22 +6310,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6343,102 +6348,102 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -6461,99 +6466,99 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7">
         <v>0.0</v>
@@ -6579,99 +6584,99 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7">
         <v>0.0</v>
@@ -6697,62 +6702,62 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -6775,159 +6780,159 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7">
         <v>0.0</v>
@@ -6953,99 +6958,99 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F32" s="2">
         <v>0.0</v>
@@ -7053,19 +7058,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F33" s="2">
         <v>0.0</v>
@@ -7073,19 +7078,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -7093,19 +7098,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F35" s="2">
         <v>0.0</v>
@@ -7134,18 +7139,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>6.0</v>
@@ -7156,7 +7161,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -8183,188 +8188,213 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8386,7 +8416,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>198</v>
@@ -8397,18 +8427,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1">
-        <v>50.0</v>
+        <v>165</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>200</v>
@@ -8417,7 +8447,11 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="205">
   <si>
     <t>VariableName</t>
   </si>
@@ -630,10 +630,16 @@
     <t>Miles</t>
   </si>
   <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>Maintenance.Cost</t>
+  </si>
+  <si>
+    <t>as.numeric(sum(Labor.Subset[which(Labor.Subset$Year == Maintenance.Subset$Year[i]),6])) * Maintenance.Subset$Cost[i]</t>
+  </si>
+  <si>
+    <t>as.numeric(sum(Labor.Subset[which(Labor.Subset$Year == Maintenance.Subset$Year[i]),6]) * Fuel.Data[which(Fuel.Data$Vehicle == 'Truck'),3]) * Maintenance.Subset$Cost[i]</t>
+  </si>
+  <si>
+    <t>as.numeric(sum(Equipment.Subset[which(Equipment.Subset$Item == 'Specialized Equipment' &amp; Equipment.Subset$Year == Maintenance.Subset$Year[i]),7])) * Maintenance.Subset$Cost[i]</t>
   </si>
 </sst>
 </file>
@@ -2138,9 +2144,6 @@
       <c r="D1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -2152,6 +2155,9 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -2163,6 +2169,9 @@
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -2174,6 +2183,9 @@
       <c r="C4" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -2185,6 +2197,9 @@
       <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -2194,7 +2209,10 @@
         <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -2205,7 +2223,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -2218,6 +2239,9 @@
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -2229,6 +2253,9 @@
       <c r="C9" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2240,6 +2267,9 @@
       <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
@@ -2251,6 +2281,9 @@
       <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
@@ -2262,6 +2295,9 @@
       <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
@@ -2273,6 +2309,9 @@
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -2284,6 +2323,9 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2295,6 +2337,9 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -2306,6 +2351,9 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
@@ -2317,6 +2365,9 @@
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
@@ -2328,6 +2379,9 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
@@ -2338,6 +2392,9 @@
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7166,8 +7223,8 @@
       <c r="B3" s="1">
         <v>4.0</v>
       </c>
-      <c r="C3" s="1">
-        <v>5.0</v>
+      <c r="C3" s="2">
+        <v>15.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -8411,7 +8468,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="22" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="21.29"/>
+    <col customWidth="1" min="2" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -8450,6 +8508,12 @@
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="2">
+        <v>200.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -13,19 +13,20 @@
     <sheet state="visible" name="Fuel_Output" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Maintenance" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Maintenance_Output" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Market" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="U5Yad8Sx9nGRkSjHYrXLQZsSTs3dmSAlvHtxBO5SmK8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="C7Yo+qX2U0KpJo9rIFe9Oc3yJYljr72061amaFkvnls="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="221">
   <si>
     <t>VariableName</t>
   </si>
@@ -252,7 +253,7 @@
     <t>Gangion Line</t>
   </si>
   <si>
-    <t>Mooring Line</t>
+    <t>Mooring Line + Chain</t>
   </si>
   <si>
     <t>Mooring Anchor</t>
@@ -417,6 +418,27 @@
     <t>`Ear Hanging Droppers`* `Dropper Length`</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>as.numeric((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),7]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),7])/`Dropper Length` * `Dropper Line Spacing`))</t>
+  </si>
+  <si>
+    <t>`Longline Quantity` * 2</t>
+  </si>
+  <si>
+    <t>`Longline Quantity`*`Longline Depth`*2*`Mooring Length`</t>
+  </si>
+  <si>
+    <t>`Longline Quantity`*2</t>
+  </si>
+  <si>
+    <t>as.numeric((((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),7]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),7])/`Dropper Length` * `Dropper Line Spacing`))/`Surface Float Spacing`)*`Longline Quantity`)</t>
+  </si>
+  <si>
     <t>Task</t>
   </si>
   <si>
@@ -594,12 +616,6 @@
     <t>ceiling(`Ear Hanging Droppers`/Labor.Subset$Task.Rate[i])</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
     <t>`Daily Work Hours` * Market.Product/Labor.Subset$Task.Rate[i]</t>
   </si>
   <si>
@@ -640,13 +656,46 @@
   </si>
   <si>
     <t>as.numeric(sum(Equipment.Subset[which(Equipment.Subset$Item == 'Specialized Equipment' &amp; Equipment.Subset$Year == Maintenance.Subset$Year[i]),7])) * Maintenance.Subset$Cost[i]</t>
+  </si>
+  <si>
+    <t>Market.Product</t>
+  </si>
+  <si>
+    <t>`Y2 Product`</t>
+  </si>
+  <si>
+    <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/4))</t>
+  </si>
+  <si>
+    <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/3))</t>
+  </si>
+  <si>
+    <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/2))</t>
+  </si>
+  <si>
+    <t>`Y3 Product`</t>
+  </si>
+  <si>
+    <t>`Y3 Product`-(`Y3 Product`*(`Y3 Mortality`/4))</t>
+  </si>
+  <si>
+    <t>`Y3 Product`-(`Y3 Product`*(`Y3 Mortality`/3))</t>
+  </si>
+  <si>
+    <t>`Y3 Product`-(`Y3 Product`*(`Y3 Mortality`/2))</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>`Y3 Product`-(`Y3 Product`*(`Y3 Mortality`))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -663,13 +712,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -696,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -716,6 +776,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -739,6 +808,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2142,7 +2215,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2">
@@ -2156,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
@@ -2170,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
@@ -2184,7 +2257,7 @@
         <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -2198,7 +2271,7 @@
         <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -2212,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -2226,7 +2299,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8">
@@ -2240,7 +2313,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -2254,7 +2327,7 @@
         <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
@@ -2268,49 +2341,49 @@
         <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14">
@@ -2324,7 +2397,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
@@ -2338,7 +2411,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
@@ -2352,49 +2425,174 @@
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +3017,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="1">
@@ -4542,7 +4740,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -4556,7 +4754,7 @@
         <v>85</v>
       </c>
       <c r="D25" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -4570,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -4754,7 +4952,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -4768,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -4782,7 +4980,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -4810,7 +5008,7 @@
         <v>24</v>
       </c>
       <c r="D40" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -4838,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -4852,7 +5050,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="7">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -4944,9 +5142,181 @@
       <c r="C48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="7" t="s">
         <v>128</v>
       </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4972,27 +5342,27 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -5006,10 +5376,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -5018,15 +5388,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -5035,15 +5405,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -5052,15 +5422,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -5069,15 +5439,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -5086,15 +5456,15 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -5103,15 +5473,15 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -5120,15 +5490,15 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -5142,10 +5512,10 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -5154,15 +5524,15 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -5171,15 +5541,15 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -5193,10 +5563,10 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
         <v>8000.0</v>
@@ -5210,10 +5580,10 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2">
         <v>12000.0</v>
@@ -5227,10 +5597,10 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -5244,10 +5614,10 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -5261,10 +5631,10 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -5278,10 +5648,10 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2">
         <v>1250.0</v>
@@ -5290,15 +5660,15 @@
         <v>1.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2">
         <v>10.0</v>
@@ -5307,15 +5677,15 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -5329,10 +5699,10 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
         <v>0.0</v>
@@ -5341,15 +5711,15 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -5358,7 +5728,7 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -6367,7 +6737,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>99</v>
@@ -6376,13 +6746,13 @@
         <v>100</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -6405,7 +6775,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
@@ -6414,18 +6784,18 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>101</v>
@@ -6434,18 +6804,18 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>101</v>
@@ -6454,18 +6824,18 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>101</v>
@@ -6474,56 +6844,56 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
+      <c r="D6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>142</v>
+      <c r="A7" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>110</v>
@@ -6532,18 +6902,18 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>145</v>
+      <c r="A8" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>110</v>
@@ -6552,18 +6922,18 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>146</v>
+      <c r="A9" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>110</v>
@@ -6572,18 +6942,18 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>110</v>
@@ -6592,18 +6962,18 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>110</v>
@@ -6612,10 +6982,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7">
         <v>0.0</v>
@@ -6641,7 +7011,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>115</v>
@@ -6650,18 +7020,18 @@
         <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>145</v>
+      <c r="A13" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>115</v>
@@ -6670,18 +7040,18 @@
         <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>146</v>
+      <c r="A14" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>115</v>
@@ -6690,18 +7060,18 @@
         <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>115</v>
@@ -6710,18 +7080,18 @@
         <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>115</v>
@@ -6730,10 +7100,10 @@
         <v>85</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7">
         <v>0.0</v>
@@ -6758,8 +7128,8 @@
       <c r="X16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>145</v>
+      <c r="A17" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
@@ -6768,18 +7138,18 @@
         <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>146</v>
+      <c r="A18" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -6788,18 +7158,18 @@
         <v>85</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>18</v>
@@ -6808,13 +7178,13 @@
         <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -6837,7 +7207,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>115</v>
@@ -6846,18 +7216,18 @@
         <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>115</v>
@@ -6866,18 +7236,18 @@
         <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>115</v>
@@ -6886,18 +7256,18 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>115</v>
@@ -6906,18 +7276,18 @@
         <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>115</v>
@@ -6926,18 +7296,18 @@
         <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>115</v>
@@ -6946,18 +7316,18 @@
         <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>115</v>
@@ -6966,18 +7336,18 @@
         <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>115</v>
@@ -6986,10 +7356,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7">
         <v>0.0</v>
@@ -7015,7 +7385,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
@@ -7024,18 +7394,18 @@
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -7044,18 +7414,18 @@
         <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
@@ -7064,50 +7434,50 @@
         <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F32" s="2">
         <v>0.0</v>
@@ -7115,19 +7485,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F33" s="2">
         <v>0.0</v>
@@ -7135,19 +7505,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -7155,19 +7525,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F35" s="2">
         <v>0.0</v>
@@ -7196,13 +7566,13 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -8245,7 +8615,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>99</v>
@@ -8254,7 +8624,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
@@ -8477,10 +8847,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -8488,7 +8858,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2">
         <v>150.0</v>
@@ -8499,7 +8869,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="221">
   <si>
     <t>VariableName</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Lease Type</t>
   </si>
   <si>
-    <t>Standard</t>
+    <t>Standard Lease</t>
   </si>
   <si>
     <t>Longline Quantity</t>
@@ -430,7 +430,7 @@
     <t>`Longline Quantity` * 2</t>
   </si>
   <si>
-    <t>`Longline Quantity`*`Longline Depth`*2*`Mooring Length`</t>
+    <t>`Longline Quantity`*(`Longline Depth`-`Longline Suspended Depth`)*2*`Mooring Length`</t>
   </si>
   <si>
     <t>`Longline Quantity`*2</t>
@@ -616,10 +616,10 @@
     <t>ceiling(`Ear Hanging Droppers`/Labor.Subset$Task.Rate[i])</t>
   </si>
   <si>
-    <t>`Daily Work Hours` * Market.Product/Labor.Subset$Task.Rate[i]</t>
-  </si>
-  <si>
-    <t>ceiling(Market.Product/Labor.Subset$Task.Rate[i])</t>
+    <t>`Daily Work Hours` * Growth.Data$Market.Product/Labor.Subset$Task.Rate[i]</t>
+  </si>
+  <si>
+    <t>ceiling(Growth.Data$Market.Product/Labor.Subset$Task.Rate[i])</t>
   </si>
   <si>
     <t>12*Labor.Subset$Task.Rate[i]</t>
@@ -5659,8 +5659,9 @@
       <c r="D19" s="2">
         <v>1.0</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>150</v>
+      <c r="E19" s="2" t="str">
+        <f>Primary!B14</f>
+        <v>Fall</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -7447,8 +7448,9 @@
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>130</v>
+      <c r="B31" s="2" t="str">
+        <f>Primary!B15</f>
+        <v>Y3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>131</v>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -19,14 +19,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="C7Yo+qX2U0KpJo9rIFe9Oc3yJYljr72061amaFkvnls="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="qqgjcaNIDUEI7pZcYIhRL3n7Dx444t1Ik2rsgjSRylY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="338">
   <si>
     <t>VariableName</t>
   </si>
@@ -34,111 +34,396 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Description (Long)</t>
+  </si>
+  <si>
     <t>Lease Type</t>
   </si>
   <si>
     <t>Standard Lease</t>
   </si>
   <si>
+    <t>Choose Lease Type</t>
+  </si>
+  <si>
+    <t>Standard Lease'
+'LPA''Experimental Lease'</t>
+  </si>
+  <si>
+    <t>Lease type will have cost and space limitations
+Standard Lease = $1500 app fee, $100/acre annual
+LPA = $100 app fee, $100/acrea annual
+Experimantal Lease = $0 app fee, $50/acre annual
+Limitations are to lease acreage and reapplication fees</t>
+  </si>
+  <si>
     <t>Longline Quantity</t>
   </si>
   <si>
+    <t>Number of Longlines</t>
+  </si>
+  <si>
+    <t>1 to 20</t>
+  </si>
+  <si>
+    <t>Number of longlines on lease space, each longline 
+requires 2 anchors, buoys, etc.  However, more longlines
+increases redundancy in the system</t>
+  </si>
+  <si>
     <t>Longline Depth</t>
   </si>
   <si>
+    <t>Lease site depth at low tide</t>
+  </si>
+  <si>
+    <t>No Limit</t>
+  </si>
+  <si>
+    <t>Depth at the lease site for anchoring longlines, 
+will also affect dropper line length (ear hanging)</t>
+  </si>
+  <si>
     <t>Longline Suspended Depth</t>
   </si>
   <si>
+    <t>Depth of head rope (main line) 
+below surface</t>
+  </si>
+  <si>
+    <t>Within 0 to Longline Depth</t>
+  </si>
+  <si>
+    <t>Depth below surface, Longline Depth-Longline
+Suspended Depth = Total Available Culture Space</t>
+  </si>
+  <si>
     <t>Product</t>
   </si>
   <si>
+    <t>Projected Spat</t>
+  </si>
+  <si>
+    <t>10000 - unlimited</t>
+  </si>
+  <si>
+    <t>Projected spat collected, this number is going to 
+vary in reality but it's just a limitation of the 
+model</t>
+  </si>
+  <si>
     <t>Starting Year</t>
   </si>
   <si>
+    <t>Self Explanatory, first your of spat procurement</t>
+  </si>
+  <si>
     <t>Consumables</t>
   </si>
   <si>
+    <t>Miscellaneous Annual Gear 
+Ex: gloves, knifes, coffee, rain gear</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>This is a catch all for the odds and ends you will expect
+to purchase during the year.  Kind of a catch all</t>
+  </si>
+  <si>
     <t>Owner Salary</t>
   </si>
   <si>
+    <t xml:space="preserve">Projected annual owner salary </t>
+  </si>
+  <si>
+    <t>Struan tells me this is important to put into the model</t>
+  </si>
+  <si>
     <t>Insurance</t>
   </si>
   <si>
+    <t>Annual Insurance Costs (Combined)</t>
+  </si>
+  <si>
+    <t>All insurance costs for vessel, truck, employees
+farm, etc</t>
+  </si>
+  <si>
     <t>Full Time Employee</t>
   </si>
   <si>
+    <t>Number of salaried employees</t>
+  </si>
+  <si>
+    <t>Salaried employees are paid an annual salary
+and are a fixed operating cost whereas part time 
+employees are a variable cost of labor</t>
+  </si>
+  <si>
     <t>Employee Salary</t>
   </si>
   <si>
+    <t>Projected annual employee salary</t>
+  </si>
+  <si>
+    <t>Annual employee wage per employee</t>
+  </si>
+  <si>
     <t>Part Time Wage</t>
   </si>
   <si>
+    <t>Part time hourly wage</t>
+  </si>
+  <si>
+    <t>7.25 - Unlimited</t>
+  </si>
+  <si>
+    <t>Minimum is based on federal minimum wage</t>
+  </si>
+  <si>
     <t>Harvest Season</t>
   </si>
   <si>
     <t>Fall</t>
   </si>
   <si>
+    <t>Harvest Quarter:
+Winter: November - January
+Spring: February - April
+Summer: May - July
+Fall: August - October</t>
+  </si>
+  <si>
+    <t>Fall', 'Winter','Spring','Summer'</t>
+  </si>
+  <si>
+    <t>Quarterly harvest period where work would 
+theoretically 'start'.  Allows for the model to 
+assess harvest against labor saving benefits</t>
+  </si>
+  <si>
     <t>Harvest Year</t>
   </si>
   <si>
     <t>Y3</t>
   </si>
   <si>
+    <t>Harvest Year:
+Y2: Starts Fall after 2 years
+Y3: Starts Fall after 3 years
+Y4: Only Fall after 4 years</t>
+  </si>
+  <si>
+    <t>Y2','Y3','Y4'</t>
+  </si>
+  <si>
+    <t>Growth metrics are only for Year 2, Year 3, and the
+Fall of Year 4.  So year and season allows for
+prediction of harvest after 2.0, 2.25, 2.5, 2.75, 3.0,
+3.25, 3.5, 3.75, and 4.0 years old (approximately)</t>
+  </si>
+  <si>
     <t>Spat Procurement</t>
   </si>
   <si>
     <t>Wild Spat - Collected</t>
   </si>
   <si>
+    <t>Select method of spat procurement:
+Wild Spat - Collected: Collected by grower
+Wild Spat - Purchased: Purchased from third 
+party</t>
+  </si>
+  <si>
+    <t>Wild Spat - Collected' 
+'Wild Spat - Purchased'</t>
+  </si>
+  <si>
+    <t>Two current methods of scallop seed (ie spat)
+To collect, growers place spat collectors in Y0 Fall
+and collect in Y0 Spring.  Requires labor and time.
+The other option is purchase from a third party, 
+more expensive/scallop as scale increases.  Grower would 
+start lease work in Y0 spring with stocking lantern nets with
+spat at 150-250/tier</t>
+  </si>
+  <si>
     <t>Intermediate Culture</t>
   </si>
   <si>
     <t>Intermediate - Lantern Net</t>
   </si>
   <si>
+    <t>Select method of intermediate culture:
+Intermediate - Lantern Net</t>
+  </si>
+  <si>
+    <t>Currently the model only supports  lantern net culture
+the other option is pearl nets.  In this stage growers 
+restock seed in Fall to 25-35/tier</t>
+  </si>
+  <si>
     <t>Grow Out Method</t>
   </si>
   <si>
     <t>Ear Hanging</t>
   </si>
   <si>
+    <t>Select method of grow out culture:
+Ear Hanging
+Lantern Net</t>
+  </si>
+  <si>
+    <t>Ear Hanging'
+'Lantern Net'</t>
+  </si>
+  <si>
+    <t>Grow out is the final and potentially longest phase.
+For lantern net growers would restock to ~10 per tier 
+but in the second year of grow out (3-4 years) they 
+would not need to restock.  Ear hanging requires 
+pinning initially but then only requires cleaning after</t>
+  </si>
+  <si>
     <t>Wild Spat Collector</t>
   </si>
   <si>
+    <t>Predicted number of scallop spat/collector</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>This will be set to ~2000, Japan
+reports spat density as high as 
+1 million/collector</t>
+  </si>
+  <si>
     <t>Spat Site Depth</t>
   </si>
   <si>
+    <t>Depth of spat collector placement</t>
+  </si>
+  <si>
+    <t>Spat are hung on a line in the water 
+column with an anchor and buoy</t>
+  </si>
+  <si>
     <t>Seed Net Density</t>
   </si>
   <si>
+    <t>Stocking density of 0-1 year old scallops</t>
+  </si>
+  <si>
+    <t>Lantern net stocking density per tier.  
+Scallop growth is highly dependent on 
+density, it's a trade off between growth
+and labor/equipment costs for lantern
+nets. (they are ~10-20 mm here)</t>
+  </si>
+  <si>
     <t>Y1 Stocking Density</t>
   </si>
   <si>
+    <t>Stocking density of 1-2 year old scallops</t>
+  </si>
+  <si>
+    <t>Y1 stocking density requires heavy thinning
+and growth will be affected above 25/tier
+but the goal is to get all scallops to 
+45-55mm before the next year</t>
+  </si>
+  <si>
     <t>Y2 Stocking Density</t>
   </si>
   <si>
+    <t>Stocking density of 2-3 year old scallops</t>
+  </si>
+  <si>
+    <t>Y2 Stocking density requires final thinning
+to grow out density.  Note that ear hanging
+ignores this metric</t>
+  </si>
+  <si>
     <t>Y3 Stocking Density</t>
   </si>
   <si>
+    <t>Stocking density of 3-4 year old scallops</t>
+  </si>
+  <si>
+    <t>I included this in case growers want to 
+consider a final thinning for lantern net
+calculations</t>
+  </si>
+  <si>
     <t>Y0 Mortality</t>
   </si>
   <si>
+    <t>Annual Mortality of 0-1 year old seed scallops</t>
+  </si>
+  <si>
+    <t>0 to 1.0</t>
+  </si>
+  <si>
+    <t>Annual mortality of seed, constant here
+but seed will likely have higher mortality</t>
+  </si>
+  <si>
     <t>Y1 Mortality</t>
   </si>
   <si>
+    <t>Annual Mortality of 1-2 year old scallops</t>
+  </si>
+  <si>
+    <t>Annual Y1 mortality</t>
+  </si>
+  <si>
     <t>Y2 Mortality</t>
   </si>
   <si>
+    <t>Annual Mortality of 2-3 year old scallops</t>
+  </si>
+  <si>
+    <t>Annual Y2 Mortality, note this is really
+just general loss, not specifically 
+death</t>
+  </si>
+  <si>
     <t>Y3 Mortality</t>
   </si>
   <si>
+    <t>Annual Mortality of 3-4 year old scallops</t>
+  </si>
+  <si>
+    <t>Annual Y3 Mortality</t>
+  </si>
+  <si>
     <t>Y1 Product</t>
   </si>
   <si>
     <t xml:space="preserve">Product * (1-`Y0 Mortality`) </t>
   </si>
   <si>
+    <t>Formula for total loss in year</t>
+  </si>
+  <si>
+    <t>No touch</t>
+  </si>
+  <si>
+    <t>Seasonal mortality breaks these down 
+into quarters but still assumes growers
+are taking annual mortality estimates
+(it affects calculation)</t>
+  </si>
+  <si>
     <t>Y2 Product</t>
   </si>
   <si>
@@ -160,67 +445,225 @@
     <t>Seed Purchase Cost</t>
   </si>
   <si>
+    <t>Cost per Scallop seed (divide if necessary)</t>
+  </si>
+  <si>
+    <t>0-$1.00</t>
+  </si>
+  <si>
+    <t>How much scallop seed costs.  Often
+sold in batches of price/1000 scallops
+but that varies so growers will
+just have to divide</t>
+  </si>
+  <si>
     <t>Mooring Length</t>
   </si>
   <si>
+    <t>Scope in relation to longline depth</t>
+  </si>
+  <si>
+    <t>This is the mooring length as a function of 
+longline suspended depth.  Literature
+recommends a mooring length of
+3-4 times the depth.</t>
+  </si>
+  <si>
     <t>Surface Float Spacing</t>
   </si>
   <si>
+    <t>Spacing of major surface floats (Feet)</t>
+  </si>
+  <si>
+    <t>ulimited</t>
+  </si>
+  <si>
+    <t>space between surface buoys attached 
+to longline meant for general visibility</t>
+  </si>
+  <si>
     <t>Longline Spacing</t>
   </si>
   <si>
+    <t>Space between longlines and lease edge (Feet)</t>
+  </si>
+  <si>
+    <t>Margin between longline and lease 
+boundary which will afect total lease area</t>
+  </si>
+  <si>
     <t>Shellfish License</t>
   </si>
   <si>
+    <t>Annual Shellfish Aquaculture License Fee</t>
+  </si>
+  <si>
+    <t>All growers require an annual shellfish
+license that is a fixed operating cost</t>
+  </si>
+  <si>
     <t>Collectors Line</t>
   </si>
   <si>
+    <t>Spat collectors per anchored line</t>
+  </si>
+  <si>
+    <t>Each anchor line for spat collection
+has several collectors attached</t>
+  </si>
+  <si>
     <t>Gangion Length</t>
   </si>
   <si>
+    <t>Average length of gangions</t>
+  </si>
+  <si>
+    <t>unlimtied</t>
+  </si>
+  <si>
+    <t>Gangions or rope lengths used to attach 
+gear such as lantern nets and 
+sub surface buoys to longline</t>
+  </si>
+  <si>
     <t>Lantern Net Tiers</t>
   </si>
   <si>
+    <t>Number of compartments in each lantern net</t>
+  </si>
+  <si>
+    <t>Standard is 7 or 10 but there can 
+be 20 or more</t>
+  </si>
+  <si>
     <t>Lantern Net Hardball Spacing</t>
   </si>
   <si>
+    <t>Number of lantern nets per hardball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hard balls or compression resistant 
+buoys used below the surface to keep 
+gear off the bottom.  </t>
+  </si>
+  <si>
     <t>Lantern Net Anchor Spacing</t>
   </si>
   <si>
+    <t>Number of lantern nets per anchor</t>
+  </si>
+  <si>
+    <t>Anchors are placed along longline
+to keep drift from current to a minimum.</t>
+  </si>
+  <si>
     <t>Lantern Net Spacing</t>
   </si>
   <si>
+    <t>Spacing between lantern nets</t>
+  </si>
+  <si>
+    <t>Will affect total longline length</t>
+  </si>
+  <si>
     <t>Ear Hanging Hardball Spacing</t>
   </si>
   <si>
+    <t>Number of dropper lines per hard ball</t>
+  </si>
+  <si>
+    <t>Similar to lantern nets but less for 
+dropper lines due to lower surface area</t>
+  </si>
+  <si>
     <t>Ear Hanging Anchor Spacing</t>
   </si>
   <si>
+    <t>Number of dropper lines per anchor</t>
+  </si>
+  <si>
+    <t>Same but for anchors</t>
+  </si>
+  <si>
     <t>Dropper Line Spacing</t>
   </si>
   <si>
+    <t>Spacing between dropper lines</t>
+  </si>
+  <si>
+    <t>spacing between dropper lines</t>
+  </si>
+  <si>
     <t>Scallops Per Dropper</t>
   </si>
   <si>
+    <t>Number of (paired) scallops on each dropper line</t>
+  </si>
+  <si>
+    <t>Total scallops on each dropper line
+scallops are hung in pairs</t>
+  </si>
+  <si>
     <t>Scallop Spacing</t>
   </si>
   <si>
+    <t>Spacing between scallops on dropper line</t>
+  </si>
+  <si>
+    <t>Spacing between each scallop couplet</t>
+  </si>
+  <si>
     <t>Dropper Margins</t>
   </si>
   <si>
+    <t>Margin of rope without scallops</t>
+  </si>
+  <si>
+    <t>Margin on either end, growers want a 
+margin near the top to avoid scallops 
+being out of the water when working 
+the line</t>
+  </si>
+  <si>
     <t>Ear Hanging Droppers</t>
   </si>
   <si>
     <t>ceiling((`Y2 Product`/`Scallops Per Dropper`))</t>
   </si>
   <si>
+    <t>Calculated total dropper lines</t>
+  </si>
+  <si>
+    <t>Do not touch</t>
+  </si>
+  <si>
+    <t>Calculates total dropper lines for each 
+year, if more than 1 year grow out
+just doubles number</t>
+  </si>
+  <si>
     <t>Dropper Length</t>
   </si>
   <si>
     <t>((`Scallops Per Dropper`*`Scallop Spacing`)/2 + `Dropper Margins`)</t>
   </si>
   <si>
+    <t>Total dropper line length</t>
+  </si>
+  <si>
+    <t>For cost of dropper line per foot metric</t>
+  </si>
+  <si>
     <t>Daily Work Hours</t>
+  </si>
+  <si>
+    <t>Daily work hours</t>
+  </si>
+  <si>
+    <t>0-24</t>
+  </si>
+  <si>
+    <t>Daily work paid for part time help</t>
   </si>
   <si>
     <t>Equipment</t>
@@ -695,6 +1138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m-d"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11.0"/>
@@ -756,12 +1202,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1053,7 +1505,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.14"/>
     <col customWidth="1" min="2" max="2" width="25.0"/>
-    <col customWidth="1" min="3" max="25" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="39.86"/>
+    <col customWidth="1" min="4" max="4" width="32.86"/>
+    <col customWidth="1" min="5" max="5" width="45.71"/>
+    <col customWidth="1" min="6" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1063,141 +1518,297 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>1.0</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>60.0</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>15.0</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>100000.0</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <v>2023.0</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>1000.0</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <v>35000.0</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>5000.0</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>1.0</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>35000.0</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>15.0</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2206,268 +2817,268 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>206</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
+      <c r="A11" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>18</v>
+      <c r="B13" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>207</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>18</v>
+      <c r="A17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>18</v>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>209</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2487,112 +3098,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>210</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>217</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>220</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2611,6 +3222,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.71"/>
+    <col customWidth="1" min="3" max="3" width="42.43"/>
+    <col customWidth="1" min="4" max="4" width="33.57"/>
+    <col customWidth="1" min="5" max="5" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2620,277 +3234,583 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2">
         <v>4000.0</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2">
         <v>100.0</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2">
         <v>250.0</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2">
         <v>25.0</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2">
         <v>10.0</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2">
         <v>10.0</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2">
         <v>0.125</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2">
         <v>0.125</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="B10" s="2">
         <v>0.125</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2">
         <v>0.125</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2">
         <v>4.0</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44934.0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2">
         <v>100.0</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2">
-        <v>40.0</v>
+        <v>120.0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2">
         <v>1200.0</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B21" s="2">
         <v>10.0</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="B22" s="2">
         <v>4.0</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2">
         <v>10.0</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44951.0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2">
         <v>10.0</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2">
         <v>25.0</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2">
         <v>3.0</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="B27" s="2">
         <v>40.0</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2">
         <v>100.0</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2">
         <v>1.0</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="B30" s="2">
         <v>140.0</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="B31" s="2">
         <v>0.5</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2">
         <v>10.0</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>170</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2">
         <v>8.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2916,56 +3836,56 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="5">
         <v>100000.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>15.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>1.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1">
         <v>25000.0</v>
@@ -2977,17 +3897,17 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8">
         <v>800.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>5.0</v>
       </c>
       <c r="D4" s="2">
@@ -2995,19 +3915,19 @@
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.61</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>10.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2">
         <v>0.07</v>
@@ -3018,7 +3938,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1">
         <v>0.91</v>
@@ -3028,36 +3948,36 @@
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="6">
         <v>1000.0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>25.0</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -3068,7 +3988,7 @@
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -3078,36 +3998,36 @@
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="5">
         <v>120.0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>15.0</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1">
         <v>100.0</v>
@@ -3118,7 +4038,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1">
         <v>70.0</v>
@@ -3129,7 +4049,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2">
         <v>20.0</v>
@@ -3139,36 +4059,36 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="9">
         <v>50.0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>10.0</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -3179,7 +4099,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1">
         <v>21.67</v>
@@ -3190,7 +4110,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2">
         <v>20.0</v>
@@ -3201,7 +4121,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2">
         <v>0.1</v>
@@ -3212,7 +4132,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -3223,7 +4143,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -3235,12 +4155,12 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -3252,12 +4172,12 @@
         <v>1.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -3269,12 +4189,12 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -3286,12 +4206,12 @@
         <v>0.0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -3303,12 +4223,12 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -3320,12 +4240,12 @@
         <v>0.0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -3339,7 +4259,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -3353,7 +4273,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
@@ -4363,139 +5283,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
@@ -4503,241 +5423,241 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
+      <c r="A15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2">
         <v>0.0</v>
@@ -4745,211 +5665,211 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="A26" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="9">
         <v>0.0</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
+      <c r="A30" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2">
         <v>0.0</v>
@@ -4957,13 +5877,13 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2">
         <v>0.0</v>
@@ -4971,13 +5891,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D38" s="2">
         <v>0.0</v>
@@ -4985,13 +5905,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2">
         <v>0.0</v>
@@ -4999,13 +5919,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2">
         <v>0.0</v>
@@ -5013,13 +5933,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2">
         <v>0.0</v>
@@ -5027,227 +5947,227 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="A43" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="9">
         <v>0.0</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
-      <c r="AA43" s="8"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
+      <c r="A49" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D54" s="2">
         <v>4.0</v>
@@ -5255,13 +6175,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D55" s="2">
         <v>0.0</v>
@@ -5269,54 +6189,54 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D56" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="7">
+      <c r="A57" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="9">
         <v>0.0</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5342,27 +6262,27 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -5371,15 +6291,15 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -5388,15 +6308,15 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -5405,15 +6325,15 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -5422,15 +6342,15 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -5439,15 +6359,15 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -5456,15 +6376,15 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -5473,15 +6393,15 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -5490,15 +6410,15 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -5507,15 +6427,15 @@
         <v>2.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -5524,15 +6444,15 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -5541,15 +6461,15 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -5558,15 +6478,15 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C14" s="2">
         <v>8000.0</v>
@@ -5575,15 +6495,15 @@
         <v>2.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2">
         <v>12000.0</v>
@@ -5592,15 +6512,15 @@
         <v>2.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -5609,15 +6529,15 @@
         <v>0.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -5626,15 +6546,15 @@
         <v>0.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -5643,15 +6563,15 @@
         <v>0.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="C19" s="2">
         <v>1250.0</v>
@@ -5666,10 +6586,10 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="C20" s="2">
         <v>10.0</v>
@@ -5678,15 +6598,15 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -5695,15 +6615,15 @@
         <v>0.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="C22" s="2">
         <v>0.0</v>
@@ -5712,15 +6632,15 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -5729,7 +6649,7 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -6737,749 +7657,749 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
+      <c r="A6" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>149</v>
+      <c r="A7" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>152</v>
+      <c r="A8" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>153</v>
+      <c r="A9" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="A11" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.0</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>152</v>
+      <c r="A13" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>153</v>
+      <c r="A14" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="A16" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="9">
         <v>0.0</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>152</v>
+      <c r="A17" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>153</v>
+      <c r="A18" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
+      <c r="A19" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>189</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>193</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="A27" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="9">
         <v>0.0</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>194</v>
+        <v>311</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>Primary!B15</f>
         <v>Y3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="F32" s="2">
         <v>0.0</v>
@@ -7487,19 +8407,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="F33" s="2">
         <v>0.0</v>
@@ -7507,19 +8427,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -7527,19 +8447,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>315</v>
       </c>
       <c r="F35" s="2">
         <v>0.0</v>
@@ -7568,18 +8488,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1">
         <v>6.0</v>
@@ -7590,7 +8510,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -8617,27 +9537,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -8645,13 +9565,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>0.0</v>
@@ -8659,13 +9579,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
@@ -8673,13 +9593,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -8687,13 +9607,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2">
         <v>0.0</v>
@@ -8701,13 +9621,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2">
         <v>0.0</v>
@@ -8715,13 +9635,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -8729,13 +9649,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -8743,13 +9663,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -8757,13 +9677,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2">
         <v>0.0</v>
@@ -8771,13 +9691,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2">
         <v>0.0</v>
@@ -8785,13 +9705,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2">
         <v>0.0</v>
@@ -8799,13 +9719,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2">
         <v>0.0</v>
@@ -8813,13 +9733,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2">
         <v>0.0</v>
@@ -8846,21 +9766,21 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2">
         <v>150.0</v>
@@ -8868,10 +9788,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1">
         <v>0.05</v>
@@ -8879,10 +9799,10 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2">
         <v>200.0</v>

--- a/Components_V2.xlsx
+++ b/Components_V2.xlsx
@@ -19,14 +19,60 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="qqgjcaNIDUEI7pZcYIhRL3n7Dx444t1Ik2rsgjSRylY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="qaEWAr6Q6MMu2lALL9Lz+r7kkVmWEZR4HnIAz1vS6MA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABAkgv5U8
+Christopher Noren    (2023-12-05 00:04:56)
+I would love to allow growers to adjust this but I think that would make the model too complex</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj1cXoYqvw6K4Ag9SrtrNG4RWfc1g=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABAkgv5VA
+Christopher Noren    (2023-12-05 00:09:58)
+We will have to determine if this column is worthwhile, I included it to account for things like driving to pick up spat in Y0 but it might add too much complexity</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjOY3Jva5+cw6qwGhChUagEZNfVPg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="399">
   <si>
     <t>VariableName</t>
   </si>
@@ -681,93 +727,254 @@
     <t>Item</t>
   </si>
   <si>
+    <t>Price Link</t>
+  </si>
+  <si>
     <t>Vessel</t>
   </si>
   <si>
+    <t>Vessel for longline work, includes all 
+modifications in cost.</t>
+  </si>
+  <si>
     <t>Truck</t>
   </si>
   <si>
+    <t>Work vehicle for transport of gear</t>
+  </si>
+  <si>
     <t>Miscellaneous Equipment</t>
   </si>
   <si>
+    <t>A general column for equipment not 
+considered in the model.</t>
+  </si>
+  <si>
     <t>Rope (1 inch)</t>
   </si>
   <si>
+    <t>Heavy rope, used for longline setup and
+long term installations</t>
+  </si>
+  <si>
+    <t>https://shop.hamiltonmarine.com/products/rope-tow-line-oletec-12-strand-co-polymer-orange--foot-reel--58549.html</t>
+  </si>
+  <si>
     <t>Gangion Line</t>
   </si>
   <si>
+    <t>1/8-1/4 (3/16") rope used in small
+ sections to attach gear to longline</t>
+  </si>
+  <si>
+    <t>https://shop.hamiltonmarine.com/products/rope-polypro-yellow-or-black--foot-or-reel--42869.html</t>
+  </si>
+  <si>
     <t>Mooring Line + Chain</t>
   </si>
   <si>
+    <t>Includes mooring line, shackles 
+and chain for major mooring
+of longline</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://shop.hamiltonmarine.com/products/acco-self-colored-1-2--grade-30-iso-chain--by-foot--61634.html
+</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>https://shop.hamiltonmarine.com/products/rope-tow-line-oletec-12-strand-co-polymer-orange--foot-reel--58549.html
+https://shop.hamiltonmarine.com/products/chicago-hardware-anchor-shackle-screw-pin-galvanized-44711.html</t>
+    </r>
+  </si>
+  <si>
     <t>Mooring Anchor</t>
   </si>
   <si>
+    <t>Various options, this model assumes 
+5 ton cement block and installation in cost
+for main longline mooring</t>
+  </si>
+  <si>
     <t>Anchor (Cement Bucket)</t>
   </si>
   <si>
+    <t>anchors along longline designed
+to reduce shift in the longline system</t>
+  </si>
+  <si>
     <t>Anchor (Brick)</t>
   </si>
   <si>
+    <t>Anchor tied to ech dropper line for 
+additional weight in high flow systems
+might not be necessary in estuarine 
+systems, clay cored brick</t>
+  </si>
+  <si>
+    <t>https://www.lowes.com/pd/8-in-x-4-in-Clay-Red-Cored-Standard-Brick/5013595093</t>
+  </si>
+  <si>
     <t>Corner Tension Float</t>
   </si>
   <si>
+    <t>Heavy duty submersible flotation buoy 
+placed at longline ends</t>
+  </si>
+  <si>
     <t>Surface Float (Large)</t>
   </si>
   <si>
+    <t>Surface floats for longline marking</t>
+  </si>
+  <si>
+    <t>https://shop.hamiltonmarine.com/products/polyform-low-drag-buoys-42624.html</t>
+  </si>
+  <si>
     <t>Lease Marker</t>
   </si>
   <si>
+    <t>Small lease boundary marker floats 
+(4 total at each corner)</t>
+  </si>
+  <si>
     <t>Go-Deep Buoy</t>
   </si>
   <si>
+    <t>Small hard marker buoys used for surface 
+barely subsurface use</t>
+  </si>
+  <si>
+    <t>https://shop.hamiltonmarine.com/products/hardshell-low-drag-buoy-7-25--x-22--42621.html</t>
+  </si>
+  <si>
     <t>Hard Ball Buoy</t>
   </si>
   <si>
+    <t>Submersible hard ball designed to 
+offset gear weight on longline</t>
+  </si>
+  <si>
+    <t>https://whitewaterfishingsupply.com/products/hard-float-red-300mm-dia-low-drag</t>
+  </si>
+  <si>
     <t>Spat Collector</t>
   </si>
   <si>
+    <t>Spat collector consisting of a 1.5 - 3mm
+mesh bag filled with 20-30 ft of 
+settlement substrate</t>
+  </si>
+  <si>
+    <t>https://seagrant.umaine.edu/wp-content/uploads/sites/467/2020/07/Scallop-Farming-Factsheet_508-ADA-Compliant.pdf</t>
+  </si>
+  <si>
     <t>Lantern Net</t>
   </si>
   <si>
+    <t>tiered mesh net between 3-15mm in
+mesh size.  No pricing available</t>
+  </si>
+  <si>
     <t>Spat Collection Permit</t>
   </si>
   <si>
+    <t>Annual spat collection license fee</t>
+  </si>
+  <si>
+    <t>https://www.mainelegislature.org/legis/statutes/12/title12sec6074-A.html#:~:text=The%20fee%20for%20a%20spat%20collection%20license%20is%20%2475.</t>
+  </si>
+  <si>
     <t>Dropper Line</t>
   </si>
   <si>
+    <t>Polyethelene rope for scallop ear 
+hanging dropper lines</t>
+  </si>
+  <si>
     <t>Age Pins</t>
   </si>
   <si>
+    <t>Small plastic pins for affixing scallops
+to dropper line</t>
+  </si>
+  <si>
     <t>Scallop Washer</t>
   </si>
   <si>
     <t>Specialized Equipment</t>
   </si>
   <si>
+    <t>Uses jet spray nozzles to remove fouling
+from scallop shell.  Requires power pack.</t>
+  </si>
+  <si>
     <t>Scallop Grader</t>
   </si>
   <si>
+    <t>Grades scallops into size classes 
+reducing labor at various sorting
+stages</t>
+  </si>
+  <si>
     <t>Power Pack</t>
   </si>
   <si>
+    <t>Provides additional power onboard
+vessels for specialized equipment</t>
+  </si>
+  <si>
     <t>Drill (Dremel)</t>
   </si>
   <si>
+    <t>Small dremel drill for hand drilling of
+scallops, slow however the equipment
+is inexpensive.  Hand pinning of scallops</t>
+  </si>
+  <si>
     <t>Drill (Automated)</t>
   </si>
   <si>
+    <t>Specialized drill auomated drilling of 
+scallops for ear hanging.  Manual pinning
+Mid-range option.</t>
+  </si>
+  <si>
     <t>Automated Drill and Pin</t>
   </si>
   <si>
+    <t xml:space="preserve">Drills and pins scallops automatically,
+most expensive option however 
+automates pinning.  </t>
+  </si>
+  <si>
     <t>Pinning Machine</t>
   </si>
   <si>
+    <t>Creates dropper lines by inserting
+age-pins into dropper line rope</t>
+  </si>
+  <si>
     <t>De-Pinning Machine</t>
   </si>
   <si>
+    <t>Allows the reuse of dropper line 
+by removing age-pins</t>
+  </si>
+  <si>
     <t>Seed</t>
   </si>
   <si>
+    <t>Price of seed purchased for 
+growers not obtaining their seed
+on their own.</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -867,7 +1074,7 @@
     <t>Global</t>
   </si>
   <si>
-    <t>as.numeric((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),7]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),7])/`Dropper Length` * `Dropper Line Spacing`))</t>
+    <t>as.numeric((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),9]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),9])/`Dropper Length` * `Dropper Line Spacing`))</t>
   </si>
   <si>
     <t>`Longline Quantity` * 2</t>
@@ -879,7 +1086,7 @@
     <t>`Longline Quantity`*2</t>
   </si>
   <si>
-    <t>as.numeric((((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),7]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),7])/`Dropper Length` * `Dropper Line Spacing`))/`Surface Float Spacing`)*`Longline Quantity`)</t>
+    <t>as.numeric((((sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Lantern Net'),9]) * `Lantern Net Spacing`) + (sum(Equipment.Subset[which(Equipment.Subset$Equipment == 'Dropper Line'),9])/`Dropper Length` * `Dropper Line Spacing`))/`Surface Float Spacing`)*`Longline Quantity`)</t>
   </si>
   <si>
     <t>Task</t>
@@ -903,42 +1110,86 @@
     <t>Devices/Day</t>
   </si>
   <si>
+    <t>In Fall, set settlement devices for spat collection
+~ August-September</t>
+  </si>
+  <si>
     <t>Collect Settlement Device</t>
   </si>
   <si>
     <t>Spring</t>
   </si>
   <si>
+    <t>In Spring/Winter collect settlement devices
+with spat in them ~January-April</t>
+  </si>
+  <si>
     <t>Process Settlement Device</t>
   </si>
   <si>
+    <t>Process settlement devices by separating scallop
+spat from fouling organisms</t>
+  </si>
+  <si>
     <t>Spat Stocking</t>
   </si>
   <si>
     <t>Scallops/Day</t>
   </si>
   <si>
+    <t>Stock spat into lantern nets, usually a volumetric
+stocking of ~250 scallops/tier</t>
+  </si>
+  <si>
     <t>Restock - Intermediate Culture</t>
   </si>
   <si>
     <t>Summer</t>
   </si>
   <si>
+    <t>Restock spat into lantern nets at ~25/tier in
+Spring/Summer</t>
+  </si>
+  <si>
     <t>Restock - Grow Out</t>
   </si>
   <si>
+    <t>Restock Y1 intermediate culture into grow out
+density of ~10/tier in Spring/Summer</t>
+  </si>
+  <si>
     <t>Lantern Net Cleaning (Spring)</t>
   </si>
   <si>
+    <t>Spring lantern net cleaning, usually involves emptying
+net and putting scallops into clean net.  Then 
+cleaning old net</t>
+  </si>
+  <si>
     <t>Lantern Net Cleaning (Summer)</t>
   </si>
   <si>
+    <t>Summer lantern net cleaning, usually involves emptying
+net and putting scallops into clean net.  Then 
+cleaning old net</t>
+  </si>
+  <si>
     <t>Lantern Net Cleaning (Fall)</t>
   </si>
   <si>
+    <t>Fall lantern net cleaning, usually involves emptying
+net and putting scallops into clean net.  Then 
+cleaning old net</t>
+  </si>
+  <si>
     <t>Dropper Line Cleaning (Spring)</t>
   </si>
   <si>
+    <t>Dropper line cleaning, important for growth and 
+shell quality in whole scallop market.  Cleaning 
+requires a specialized system to do easily</t>
+  </si>
+  <si>
     <t>Dropper Line Cleaning (Summer)</t>
   </si>
   <si>
@@ -948,27 +1199,58 @@
     <t>Drilling + Pinning: Dremel</t>
   </si>
   <si>
+    <t>Dremel is slow, however it is less expensive
+to procure more machines</t>
+  </si>
+  <si>
     <t>Drilling + Pinning: Automated Drilling</t>
   </si>
   <si>
+    <t xml:space="preserve">Automated drilling machine is the fastest method of
+drilling however requires </t>
+  </si>
+  <si>
     <t>Drilling + Pinning: Fully Automated</t>
   </si>
   <si>
+    <t>Fully automated drilling and pinning is expensive
+however each machine only requires one individual
+for labor. (Requires power pack?)</t>
+  </si>
+  <si>
     <t>Dropper Line Construction</t>
   </si>
   <si>
+    <t>Dropper Line construction can be done at 
+almost any time.  Uses pinning machine
+to insert age-pins into dropper line</t>
+  </si>
+  <si>
     <t>Previous Year Net Cleaning (on Land)</t>
   </si>
   <si>
+    <t>Cleaning of nets on land from previous year of 
+scallops</t>
+  </si>
+  <si>
     <t>Harvest</t>
   </si>
   <si>
+    <t>Harvest, similar time frame for whole scallops
+and adductor only.  Does not account for
+delivery to market</t>
+  </si>
+  <si>
     <t>Prep Time (Summer)</t>
   </si>
   <si>
     <t>Hours/Week</t>
   </si>
   <si>
+    <t>On land 'Prep time' for misc tasks 
+ex: cement bucket anchor construction</t>
+  </si>
+  <si>
     <t>Prep Time (Fall)</t>
   </si>
   <si>
@@ -1002,9 +1284,6 @@
     <t>ceiling(Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Labor.Subset$Task.Rate[i])</t>
   </si>
   <si>
-    <t>`Daily Work Hours`*Equipment.Subset$Quantity[which(Equipment.Subset$Equipment == 'Spat Collector')]/ Labor.Subset$Task.Rate[i]</t>
-  </si>
-  <si>
     <t>`Daily Work Hours`*Product/ Labor.Subset$Task.Rate[i]</t>
   </si>
   <si>
@@ -1077,6 +1356,9 @@
     <t>Usage.Trip</t>
   </si>
   <si>
+    <t>Usage/trip entails the total daily mileage</t>
+  </si>
+  <si>
     <t>Additional.Trips</t>
   </si>
   <si>
@@ -1086,9 +1368,22 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>average maintenance cost/vessel trip.
+This is in addition to depreication costs</t>
+  </si>
+  <si>
     <t>Miles</t>
   </si>
   <si>
+    <t>average maintenance cost/truck trip.
+This is in addition to depreication costs</t>
+  </si>
+  <si>
+    <t>Went through a number of conseptual ideas
+however I think a flat fee per equipment is a
+better option or else the model becomes needlessly complex.</t>
+  </si>
+  <si>
     <t>Maintenance.Cost</t>
   </si>
   <si>
@@ -1098,7 +1393,7 @@
     <t>as.numeric(sum(Labor.Subset[which(Labor.Subset$Year == Maintenance.Subset$Year[i]),6]) * Fuel.Data[which(Fuel.Data$Vehicle == 'Truck'),3]) * Maintenance.Subset$Cost[i]</t>
   </si>
   <si>
-    <t>as.numeric(sum(Equipment.Subset[which(Equipment.Subset$Item == 'Specialized Equipment' &amp; Equipment.Subset$Year == Maintenance.Subset$Year[i]),7])) * Maintenance.Subset$Cost[i]</t>
+    <t>as.numeric(sum(Equipment.Subset[which(Equipment.Subset$Item == 'Specialized Equipment' &amp; Equipment.Subset$Year == Maintenance.Subset$Year[i]),9])) * Maintenance.Subset$Cost[i]</t>
   </si>
   <si>
     <t>Market.Product</t>
@@ -1107,10 +1402,19 @@
     <t>`Y2 Product`</t>
   </si>
   <si>
+    <t>These are essentially the matrix to join growth data with mortality and harvest timing</t>
+  </si>
+  <si>
     <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/4))</t>
   </si>
   <si>
+    <t>Important to note that quarterly mortality is broken down annual mortality as it affects the math</t>
+  </si>
+  <si>
     <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/3))</t>
+  </si>
+  <si>
+    <t>The assumption is that growers are measuring mortality annually...result is slightly different if mortality is measured quarterly</t>
   </si>
   <si>
     <t>`Y2 Product`-(`Y2 Product`*(`Y2 Mortality`/2))</t>
@@ -1141,7 +1445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1157,6 +1461,18 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1202,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1224,14 +1540,23 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2820,265 +3145,265 @@
         <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3095,60 +3420,75 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="49.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>327</v>
+        <v>385</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>328</v>
+        <v>386</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>329</v>
+        <v>388</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>330</v>
+        <v>390</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>331</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
@@ -3159,7 +3499,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
@@ -3167,10 +3507,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
@@ -3178,10 +3518,10 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9">
@@ -3189,21 +3529,21 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +4171,9 @@
     <col customWidth="1" min="1" max="1" width="22.86"/>
     <col customWidth="1" min="2" max="4" width="8.71"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
-    <col customWidth="1" min="6" max="20" width="8.71"/>
+    <col customWidth="1" min="6" max="6" width="33.86"/>
+    <col customWidth="1" min="7" max="7" width="33.14"/>
+    <col customWidth="1" min="8" max="20" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3850,13 +4192,19 @@
       <c r="E1" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="5">
-        <v>100000.0</v>
+        <v>188</v>
+      </c>
+      <c r="B2" s="6">
+        <v>150000.0</v>
       </c>
       <c r="C2" s="5">
         <v>15.0</v>
@@ -3865,9 +4213,11 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3885,7 +4235,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1">
         <v>25000.0</v>
@@ -3897,12 +4247,15 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B4" s="8">
         <v>800.0</v>
@@ -3913,43 +4266,64 @@
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B5" s="7">
-        <v>0.61</v>
+        <v>2.65</v>
       </c>
       <c r="C5" s="7">
         <v>10.0</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2">
-        <v>0.07</v>
+        <v>0.17</v>
       </c>
       <c r="C6" s="2">
         <v>8.0</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.91</v>
+        <v>200</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4.5</v>
       </c>
       <c r="C7" s="1">
         <v>8.0</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6">
         <v>1000.0</v>
@@ -3959,7 +4333,9 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>204</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -3977,7 +4353,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2">
         <v>5.0</v>
@@ -3985,10 +4361,13 @@
       <c r="C9" s="2">
         <v>10.0</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2">
         <v>1.5</v>
@@ -3996,20 +4375,28 @@
       <c r="C10" s="2">
         <v>10.0</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="5">
-        <v>120.0</v>
+        <v>210</v>
+      </c>
+      <c r="B11" s="6">
+        <v>180.0</v>
       </c>
       <c r="C11" s="6">
         <v>15.0</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -4027,18 +4414,24 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100.0</v>
+        <v>212</v>
+      </c>
+      <c r="B12" s="2">
+        <v>70.0</v>
       </c>
       <c r="C12" s="1">
         <v>10.0</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1">
         <v>70.0</v>
@@ -4046,49 +4439,62 @@
       <c r="C13" s="1">
         <v>10.0</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B14" s="2">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C14" s="2">
         <v>10.0</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="A15" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="C15" s="11">
         <v>10.0</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B16" s="1">
         <v>4.0</v>
@@ -4096,43 +4502,64 @@
       <c r="C16" s="1">
         <v>1.0</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="1">
-        <v>21.67</v>
+        <v>226</v>
+      </c>
+      <c r="B17" s="2">
+        <v>25.0</v>
       </c>
       <c r="C17" s="1">
         <v>5.0</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B18" s="2">
-        <v>20.0</v>
+        <v>75.0</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="C19" s="2">
         <v>5.0</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B20" s="2">
         <v>0.001</v>
@@ -4140,10 +4567,13 @@
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2">
         <v>35000.0</v>
@@ -4155,12 +4585,15 @@
         <v>1.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B22" s="2">
         <v>14000.0</v>
@@ -4172,12 +4605,15 @@
         <v>1.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B23" s="2">
         <v>10000.0</v>
@@ -4189,12 +4625,15 @@
         <v>1.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2">
         <v>2000.0</v>
@@ -4206,12 +4645,15 @@
         <v>0.0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2">
         <v>25000.0</v>
@@ -4223,12 +4665,15 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2">
         <v>45000.0</v>
@@ -4240,12 +4685,15 @@
         <v>0.0</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2">
         <v>3000.0</v>
@@ -4256,10 +4704,13 @@
       <c r="D27" s="2">
         <v>1.0</v>
       </c>
+      <c r="F27" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2">
         <v>2000.0</v>
@@ -4270,16 +4721,22 @@
       <c r="D28" s="2">
         <v>1.0</v>
       </c>
+      <c r="F28" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2">
         <v>0.01</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -5259,10 +5716,22 @@
     <row r="1005" ht="14.25" customHeight="1"/>
     <row r="1006" ht="14.25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G5"/>
+    <hyperlink r:id="rId2" ref="G6"/>
+    <hyperlink r:id="rId3" ref="G7"/>
+    <hyperlink r:id="rId4" ref="G10"/>
+    <hyperlink r:id="rId5" ref="G12"/>
+    <hyperlink r:id="rId6" ref="G14"/>
+    <hyperlink r:id="rId7" ref="G15"/>
+    <hyperlink r:id="rId8" ref="G16"/>
+    <hyperlink r:id="rId9" location=":~:text=The%20fee%20for%20a%20spat%20collection%20license%20is%20%2475." ref="G18"/>
+    <hyperlink r:id="rId10" ref="G19"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -5286,10 +5755,10 @@
         <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>185</v>
@@ -5297,122 +5766,122 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>59</v>
@@ -5423,13 +5892,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -5437,227 +5906,227 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D24" s="2">
         <v>0.0</v>
@@ -5665,208 +6134,208 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="A26" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="11">
         <v>0.0</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>68</v>
@@ -5877,10 +6346,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>68</v>
@@ -5891,10 +6360,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>68</v>
@@ -5905,10 +6374,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>68</v>
@@ -5919,10 +6388,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>68</v>
@@ -5933,10 +6402,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>68</v>
@@ -5947,10 +6416,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>68</v>
@@ -5960,45 +6429,45 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="11">
         <v>0.0</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>54</v>
@@ -6007,12 +6476,12 @@
         <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
@@ -6021,12 +6490,12 @@
         <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>54</v>
@@ -6035,12 +6504,12 @@
         <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>54</v>
@@ -6049,12 +6518,12 @@
         <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>54</v>
@@ -6062,22 +6531,22 @@
       <c r="C48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>245</v>
+      <c r="D48" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="s">
-        <v>190</v>
+      <c r="A49" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>249</v>
+        <v>286</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -6105,69 +6574,69 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D54" s="2">
         <v>4.0</v>
@@ -6175,13 +6644,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D55" s="2">
         <v>0.0</v>
@@ -6189,54 +6658,54 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D56" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="A57" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="11">
         <v>0.0</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6256,33 +6725,36 @@
     <col customWidth="1" min="1" max="1" width="32.57"/>
     <col customWidth="1" min="2" max="2" width="11.43"/>
     <col customWidth="1" min="3" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
+    <col customWidth="1" min="6" max="6" width="43.57"/>
     <col customWidth="1" min="7" max="20" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1">
         <v>50.0</v>
@@ -6293,13 +6765,16 @@
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1">
         <v>100.0</v>
@@ -6308,15 +6783,18 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1">
         <v>50.0</v>
@@ -6325,15 +6803,18 @@
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1">
         <v>200000.0</v>
@@ -6342,15 +6823,18 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1">
         <v>100.0</v>
@@ -6359,15 +6843,18 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C7" s="2">
         <v>150.0</v>
@@ -6376,15 +6863,18 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
@@ -6393,15 +6883,18 @@
         <v>2.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2">
         <v>150.0</v>
@@ -6410,15 +6903,18 @@
         <v>2.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C10" s="1">
         <v>150.0</v>
@@ -6429,13 +6925,16 @@
       <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C11" s="2">
         <v>275.0</v>
@@ -6444,15 +6943,18 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C12" s="2">
         <v>275.0</v>
@@ -6461,15 +6963,18 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C13" s="2">
         <v>275.0</v>
@@ -6480,47 +6985,56 @@
       <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2">
-        <v>8000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D14" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C15" s="2">
-        <v>12000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="D15" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C16" s="2">
         <v>10000.0</v>
@@ -6531,13 +7045,16 @@
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C17" s="2">
         <v>240.0</v>
@@ -6548,13 +7065,16 @@
       <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1">
         <v>200.0</v>
@@ -6565,13 +7085,16 @@
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C19" s="2">
         <v>1250.0</v>
@@ -6583,13 +7106,16 @@
         <f>Primary!B14</f>
         <v>Fall</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C20" s="2">
         <v>10.0</v>
@@ -6598,15 +7124,18 @@
         <v>0.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -6617,13 +7146,16 @@
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C22" s="2">
         <v>0.0</v>
@@ -6632,15 +7164,18 @@
         <v>0.0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -6649,7 +7184,10 @@
         <v>0.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>286</v>
+        <v>341</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -7657,656 +8195,656 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="D6" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>266</v>
+      <c r="A7" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>269</v>
+      <c r="A8" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>270</v>
+      <c r="A9" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="11">
         <v>0.0</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>269</v>
+      <c r="A13" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="A16" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="11">
         <v>0.0</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
-        <v>269</v>
+      <c r="A17" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="s">
-        <v>270</v>
+      <c r="A18" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="11">
         <v>0.0</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>54</v>
@@ -8315,18 +8853,18 @@
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
@@ -8335,18 +8873,18 @@
         <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
@@ -8355,51 +8893,51 @@
         <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>Primary!B15</f>
         <v>Y3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F32" s="2">
         <v>0.0</v>
@@ -8407,19 +8945,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F33" s="2">
         <v>0.0</v>
@@ -8427,19 +8965,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F34" s="2">
         <v>0.0</v>
@@ -8447,26 +8985,27 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F35" s="2">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8483,23 +9022,27 @@
     <col customWidth="1" min="1" max="1" width="8.71"/>
     <col customWidth="1" min="2" max="2" width="12.29"/>
     <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="22" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="35.57"/>
+    <col customWidth="1" min="5" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>318</v>
+        <v>372</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1">
         <v>6.0</v>
@@ -8507,16 +9050,22 @@
       <c r="C2" s="1">
         <v>21.0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
       </c>
       <c r="C3" s="2">
         <v>15.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
@@ -9537,24 +10086,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>59</v>
@@ -9565,10 +10114,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
@@ -9579,13 +10128,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
@@ -9593,13 +10142,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -9607,10 +10156,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -9621,10 +10170,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
@@ -9635,13 +10184,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2">
         <v>0.0</v>
@@ -9649,13 +10198,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2">
         <v>0.0</v>
@@ -9663,13 +10212,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D10" s="2">
         <v>0.0</v>
@@ -9677,13 +10226,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D11" s="2">
         <v>0.0</v>
@@ -9691,10 +10240,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>68</v>
@@ -9705,10 +10254,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>68</v>
@@ -9719,7 +10268,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>54</v>
@@ -9733,7 +10282,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -9746,7 +10295,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9761,7 +10311,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.29"/>
-    <col customWidth="1" min="2" max="22" width="8.71"/>
+    <col customWidth="1" min="2" max="3" width="8.71"/>
+    <col customWidth="1" min="4" max="4" width="37.57"/>
+    <col customWidth="1" min="5" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -9769,43 +10321,55 @@
         <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>376</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="C2" s="2">
         <v>150.0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.05</v>
+        <v>378</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C4" s="2">
         <v>200.0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
